--- a/JupyterNotebooks/AvgHW/Gamma2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,18 +82,21 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,19 +635,19 @@
         <v>1.000043566263338</v>
       </c>
       <c r="F3">
+        <v>0.9998257305743418</v>
+      </c>
+      <c r="G3">
         <v>1.000043566263338</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.000116182718785</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.9999041516380389</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.000043566263338</v>
-      </c>
-      <c r="J3">
-        <v>0.9998257305743418</v>
       </c>
       <c r="K3">
         <v>1.000043566263338</v>
@@ -728,7 +680,7 @@
         <v>0.9999961272868633</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -745,19 +697,19 @@
         <v>1.000084105684225</v>
       </c>
       <c r="F4">
+        <v>0.999663574283895</v>
+      </c>
+      <c r="G4">
         <v>1.000084105684225</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.000224288220767</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.9998149660040454</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.000084105684225</v>
-      </c>
-      <c r="J4">
-        <v>0.999663574283895</v>
       </c>
       <c r="K4">
         <v>1.000084105684225</v>
@@ -790,7 +742,7 @@
         <v>0.9999925242602302</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -807,19 +759,19 @@
         <v>1.000161177405645</v>
       </c>
       <c r="F5">
+        <v>0.9993552797451722</v>
+      </c>
+      <c r="G5">
         <v>1.000161177405645</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.000429813370953</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.9996454035408682</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.000161177405645</v>
-      </c>
-      <c r="J5">
-        <v>0.9993552797451722</v>
       </c>
       <c r="K5">
         <v>1.000161177405645</v>
@@ -852,7 +804,7 @@
         <v>0.999985671478988</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -869,19 +821,19 @@
         <v>1.000236393446219</v>
       </c>
       <c r="F6">
+        <v>0.9990544044105775</v>
+      </c>
+      <c r="G6">
         <v>1.000236393446219</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.000630413010154</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.9994799234400336</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.000236393446219</v>
-      </c>
-      <c r="J6">
-        <v>0.9990544044105775</v>
       </c>
       <c r="K6">
         <v>1.000236393446219</v>
@@ -914,7 +866,7 @@
         <v>0.9999789868665706</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -931,19 +883,19 @@
         <v>1.000003105044205</v>
       </c>
       <c r="F7">
+        <v>0.9999875767389075</v>
+      </c>
+      <c r="G7">
         <v>1.000003105044205</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.00000828475663</v>
       </c>
-      <c r="H7">
-        <v>0.999993167120613</v>
-      </c>
       <c r="I7">
+        <v>0.9999931671206129</v>
+      </c>
+      <c r="J7">
         <v>1.000003105044205</v>
-      </c>
-      <c r="J7">
-        <v>0.9999875767389075</v>
       </c>
       <c r="K7">
         <v>1.000003105044205</v>
@@ -976,7 +928,7 @@
         <v>0.9999997239581276</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,25 +939,25 @@
         <v>1.000007915867432</v>
       </c>
       <c r="D8">
-        <v>0.9999683336938795</v>
+        <v>0.9999683336938797</v>
       </c>
       <c r="E8">
         <v>1.000007915867432</v>
       </c>
       <c r="F8">
+        <v>0.9999683336938797</v>
+      </c>
+      <c r="G8">
         <v>1.000007915867432</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.000021113560531</v>
       </c>
-      <c r="H8">
-        <v>0.999982583382636</v>
-      </c>
       <c r="I8">
+        <v>0.9999825833826359</v>
+      </c>
+      <c r="J8">
         <v>1.000007915867432</v>
-      </c>
-      <c r="J8">
-        <v>0.9999683336938795</v>
       </c>
       <c r="K8">
         <v>1.000007915867432</v>
@@ -1038,7 +990,7 @@
         <v>0.9999992963732239</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1055,19 +1007,19 @@
         <v>1.00001108369779</v>
       </c>
       <c r="F9">
+        <v>0.9999556618337458</v>
+      </c>
+      <c r="G9">
         <v>1.00001108369779</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.000029561020586</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.9999756139985984</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.00001108369779</v>
-      </c>
-      <c r="J9">
-        <v>0.9999556618337458</v>
       </c>
       <c r="K9">
         <v>1.00001108369779</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999990146577166</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1117,19 +1069,19 @@
         <v>1.000023900145463</v>
       </c>
       <c r="F10">
+        <v>0.9999043960420384</v>
+      </c>
+      <c r="G10">
         <v>1.000023900145463</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.000063739282692</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.9999474174836135</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.000023900145463</v>
-      </c>
-      <c r="J10">
-        <v>0.9999043960420384</v>
       </c>
       <c r="K10">
         <v>1.000023900145463</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999978755407888</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1179,19 +1131,19 @@
         <v>1.000039645164463</v>
       </c>
       <c r="F11">
+        <v>0.9998414139570424</v>
+      </c>
+      <c r="G11">
         <v>1.000039645164463</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.000105726445632</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.9999127754669546</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.000039645164463</v>
-      </c>
-      <c r="J11">
-        <v>0.9998414139570424</v>
       </c>
       <c r="K11">
         <v>1.000039645164463</v>
@@ -1200,31 +1152,31 @@
         <v>1.000039645164463</v>
       </c>
       <c r="M11">
-        <v>0.9999405295607526</v>
+        <v>0.9999405295607527</v>
       </c>
       <c r="N11">
-        <v>0.9999405295607526</v>
+        <v>0.9999405295607527</v>
       </c>
       <c r="O11">
         <v>0.9999312781961534</v>
       </c>
       <c r="P11">
-        <v>0.9999735680953227</v>
+        <v>0.9999735680953229</v>
       </c>
       <c r="Q11">
-        <v>0.9999735680953227</v>
+        <v>0.9999735680953229</v>
       </c>
       <c r="R11">
-        <v>0.9999900873626077</v>
+        <v>0.999990087362608</v>
       </c>
       <c r="S11">
-        <v>0.9999900873626077</v>
+        <v>0.999990087362608</v>
       </c>
       <c r="T11">
-        <v>0.9999964752271696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999964752271698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1241,19 +1193,19 @@
         <v>0.9996486092097823</v>
       </c>
       <c r="F12">
+        <v>1.001405579072191</v>
+      </c>
+      <c r="G12">
         <v>0.9996486092097823</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.9990629566350978</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.000773066766072</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.9996486092097823</v>
-      </c>
-      <c r="J12">
-        <v>1.001405579072191</v>
       </c>
       <c r="K12">
         <v>0.9996486092097823</v>
@@ -1286,7 +1238,7 @@
         <v>1.000031238350451</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1303,19 +1255,19 @@
         <v>0.999909272165817</v>
       </c>
       <c r="F13">
+        <v>1.000362898628533</v>
+      </c>
+      <c r="G13">
         <v>0.999909272165817</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.9997580670945519</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.000199594004473</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.999909272165817</v>
-      </c>
-      <c r="J13">
-        <v>1.000362898628533</v>
       </c>
       <c r="K13">
         <v>0.999909272165817</v>
@@ -1348,7 +1300,7 @@
         <v>1.000008062704168</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1365,19 +1317,19 @@
         <v>0.9996486382132348</v>
       </c>
       <c r="F14">
+        <v>1.001405501410092</v>
+      </c>
+      <c r="G14">
         <v>0.9996486382132348</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.9990629917679428</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.000773025470039</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.9996486382132348</v>
-      </c>
-      <c r="J14">
-        <v>1.001405501410092</v>
       </c>
       <c r="K14">
         <v>0.9996486382132348</v>
@@ -1410,7 +1362,7 @@
         <v>1.000031238881296</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,34 +1370,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999092718109113</v>
+        <v>0.999909271810911</v>
       </c>
       <c r="D15">
         <v>1.000362877124751</v>
       </c>
       <c r="E15">
-        <v>0.9999092718109113</v>
+        <v>0.999909271810911</v>
       </c>
       <c r="F15">
-        <v>0.9999092718109113</v>
+        <v>1.000362877124751</v>
       </c>
       <c r="G15">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="H15">
         <v>0.9997580801805364</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.000199582659947</v>
       </c>
-      <c r="I15">
-        <v>0.9999092718109113</v>
-      </c>
       <c r="J15">
-        <v>1.000362877124751</v>
+        <v>0.999909271810911</v>
       </c>
       <c r="K15">
-        <v>0.9999092718109113</v>
+        <v>0.999909271810911</v>
       </c>
       <c r="L15">
-        <v>0.9999092718109113</v>
+        <v>0.999909271810911</v>
       </c>
       <c r="M15">
         <v>1.000136074467831</v>
@@ -1472,7 +1424,7 @@
         <v>1.000008059232995</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00000017884976</v>
+        <v>1.000849777159967</v>
       </c>
       <c r="D16">
-        <v>0.9999992813743712</v>
+        <v>0.9966008566744176</v>
       </c>
       <c r="E16">
-        <v>1.00000017884976</v>
+        <v>1.000849777159967</v>
       </c>
       <c r="F16">
-        <v>1.00000017884976</v>
+        <v>0.9966008566744176</v>
       </c>
       <c r="G16">
-        <v>1.000000481555452</v>
+        <v>1.000849777159967</v>
       </c>
       <c r="H16">
-        <v>0.9999996046812091</v>
+        <v>1.002266107904375</v>
       </c>
       <c r="I16">
-        <v>1.00000017884976</v>
+        <v>0.9981304718238739</v>
       </c>
       <c r="J16">
-        <v>0.9999992813743712</v>
+        <v>1.000849777159967</v>
       </c>
       <c r="K16">
-        <v>1.00000017884976</v>
+        <v>1.000849777159967</v>
       </c>
       <c r="L16">
-        <v>1.00000017884976</v>
+        <v>1.000849777159967</v>
       </c>
       <c r="M16">
-        <v>0.9999997301120657</v>
+        <v>0.9987253169171921</v>
       </c>
       <c r="N16">
-        <v>0.9999997301120657</v>
+        <v>0.9987253169171921</v>
       </c>
       <c r="O16">
-        <v>0.9999996883017802</v>
+        <v>0.9985270352194194</v>
       </c>
       <c r="P16">
-        <v>0.9999998796912971</v>
+        <v>0.9994334703314504</v>
       </c>
       <c r="Q16">
-        <v>0.9999998796912971</v>
+        <v>0.9994334703314504</v>
       </c>
       <c r="R16">
-        <v>0.9999999544809128</v>
+        <v>0.9997875470385794</v>
       </c>
       <c r="S16">
-        <v>0.9999999544809128</v>
+        <v>0.9997875470385794</v>
       </c>
       <c r="T16">
-        <v>0.9999999840267186</v>
+        <v>0.9999244613137611</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003809022546</v>
+        <v>1.000695368864984</v>
       </c>
       <c r="D17">
-        <v>0.999984760761442</v>
+        <v>0.9972184966128134</v>
       </c>
       <c r="E17">
-        <v>1.000003809022546</v>
+        <v>1.000695368864984</v>
       </c>
       <c r="F17">
-        <v>1.000003809022546</v>
+        <v>0.9972184966128134</v>
       </c>
       <c r="G17">
-        <v>1.000010162130821</v>
+        <v>1.000695368864984</v>
       </c>
       <c r="H17">
-        <v>0.9999916182417965</v>
+        <v>1.00185434437581</v>
       </c>
       <c r="I17">
-        <v>1.000003809022546</v>
+        <v>0.9984701736213616</v>
       </c>
       <c r="J17">
-        <v>0.999984760761442</v>
+        <v>1.000695368864984</v>
       </c>
       <c r="K17">
-        <v>1.000003809022546</v>
+        <v>1.000695368864984</v>
       </c>
       <c r="L17">
-        <v>1.000003809022546</v>
+        <v>1.000695368864984</v>
       </c>
       <c r="M17">
-        <v>0.9999942848919939</v>
+        <v>0.9989569327388987</v>
       </c>
       <c r="N17">
-        <v>0.9999942848919939</v>
+        <v>0.9989569327388987</v>
       </c>
       <c r="O17">
-        <v>0.9999933960085947</v>
+        <v>0.9987946796997197</v>
       </c>
       <c r="P17">
-        <v>0.9999974596021778</v>
+        <v>0.9995364114475939</v>
       </c>
       <c r="Q17">
-        <v>0.9999974596021778</v>
+        <v>0.9995364114475939</v>
       </c>
       <c r="R17">
-        <v>0.9999990469572698</v>
+        <v>0.9998261508019415</v>
       </c>
       <c r="S17">
-        <v>0.9999990469572698</v>
+        <v>0.9998261508019415</v>
       </c>
       <c r="T17">
-        <v>0.9999996613669495</v>
+        <v>0.9999381868674896</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013413205217</v>
+        <v>1.000384885456394</v>
       </c>
       <c r="D18">
-        <v>0.9999463458713667</v>
+        <v>0.9984604414307865</v>
       </c>
       <c r="E18">
-        <v>1.000013413205217</v>
+        <v>1.000384885456394</v>
       </c>
       <c r="F18">
-        <v>1.000013413205217</v>
+        <v>0.9984604414307865</v>
       </c>
       <c r="G18">
-        <v>1.000035772830209</v>
+        <v>1.000384885456394</v>
       </c>
       <c r="H18">
-        <v>0.9999704888985416</v>
+        <v>1.001026373353048</v>
       </c>
       <c r="I18">
-        <v>1.000013413205217</v>
+        <v>0.9991532433243213</v>
       </c>
       <c r="J18">
-        <v>0.9999463458713667</v>
+        <v>1.000384885456394</v>
       </c>
       <c r="K18">
-        <v>1.000013413205217</v>
+        <v>1.000384885456394</v>
       </c>
       <c r="L18">
-        <v>1.000013413205217</v>
+        <v>1.000384885456394</v>
       </c>
       <c r="M18">
-        <v>0.9999798795382918</v>
+        <v>0.9994226634435903</v>
       </c>
       <c r="N18">
-        <v>0.9999798795382918</v>
+        <v>0.9994226634435903</v>
       </c>
       <c r="O18">
-        <v>0.9999767493250418</v>
+        <v>0.9993328567371673</v>
       </c>
       <c r="P18">
-        <v>0.9999910574272669</v>
+        <v>0.9997434041145249</v>
       </c>
       <c r="Q18">
-        <v>0.9999910574272669</v>
+        <v>0.9997434041145249</v>
       </c>
       <c r="R18">
-        <v>0.9999966463717544</v>
+        <v>0.9999037744499921</v>
       </c>
       <c r="S18">
-        <v>0.9999966463717544</v>
+        <v>0.9999037744499921</v>
       </c>
       <c r="T18">
-        <v>0.9999988078692946</v>
+        <v>0.9999657857462229</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="D19">
+        <v>0.9983193950194883</v>
+      </c>
+      <c r="E19">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="F19">
+        <v>0.9983193950194883</v>
+      </c>
+      <c r="G19">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="H19">
+        <v>1.001120402714013</v>
+      </c>
+      <c r="I19">
+        <v>0.999075667663112</v>
+      </c>
+      <c r="J19">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="K19">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="L19">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="M19">
+        <v>0.9993697704529056</v>
+      </c>
+      <c r="N19">
+        <v>0.9993697704529056</v>
+      </c>
+      <c r="O19">
+        <v>0.999271736189641</v>
+      </c>
+      <c r="P19">
+        <v>0.9997198955973782</v>
+      </c>
+      <c r="Q19">
+        <v>0.9997198955973782</v>
+      </c>
+      <c r="R19">
+        <v>0.9998949581696144</v>
+      </c>
+      <c r="S19">
+        <v>0.9998949581696144</v>
+      </c>
+      <c r="T19">
+        <v>0.9999626505092639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="D20">
+        <v>0.9999992813743712</v>
+      </c>
+      <c r="E20">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="F20">
+        <v>0.9999992813743712</v>
+      </c>
+      <c r="G20">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="H20">
+        <v>1.000000481555452</v>
+      </c>
+      <c r="I20">
+        <v>0.9999996046812091</v>
+      </c>
+      <c r="J20">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="K20">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="L20">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="M20">
+        <v>0.9999997301120657</v>
+      </c>
+      <c r="N20">
+        <v>0.9999997301120657</v>
+      </c>
+      <c r="O20">
+        <v>0.9999996883017802</v>
+      </c>
+      <c r="P20">
+        <v>0.9999998796912971</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999998796912971</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999544809128</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999544809128</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999840267186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="D21">
+        <v>0.999984760761442</v>
+      </c>
+      <c r="E21">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="F21">
+        <v>0.999984760761442</v>
+      </c>
+      <c r="G21">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="H21">
+        <v>1.000010162130821</v>
+      </c>
+      <c r="I21">
+        <v>0.9999916182417963</v>
+      </c>
+      <c r="J21">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="K21">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="L21">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="M21">
+        <v>0.9999942848919939</v>
+      </c>
+      <c r="N21">
+        <v>0.9999942848919939</v>
+      </c>
+      <c r="O21">
+        <v>0.9999933960085947</v>
+      </c>
+      <c r="P21">
+        <v>0.9999974596021778</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999974596021778</v>
+      </c>
+      <c r="R21">
+        <v>0.9999990469572698</v>
+      </c>
+      <c r="S21">
+        <v>0.9999990469572698</v>
+      </c>
+      <c r="T21">
+        <v>0.9999996613669495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="D22">
+        <v>0.9999463458713667</v>
+      </c>
+      <c r="E22">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="F22">
+        <v>0.9999463458713667</v>
+      </c>
+      <c r="G22">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="H22">
+        <v>1.000035772830209</v>
+      </c>
+      <c r="I22">
+        <v>0.9999704888985416</v>
+      </c>
+      <c r="J22">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="K22">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="L22">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="M22">
+        <v>0.9999798795382918</v>
+      </c>
+      <c r="N22">
+        <v>0.9999798795382918</v>
+      </c>
+      <c r="O22">
+        <v>0.9999767493250418</v>
+      </c>
+      <c r="P22">
+        <v>0.9999910574272669</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999910574272669</v>
+      </c>
+      <c r="R22">
+        <v>0.9999966463717544</v>
+      </c>
+      <c r="S22">
+        <v>0.9999966463717544</v>
+      </c>
+      <c r="T22">
+        <v>0.9999988078692946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000031421086823</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>0.9998742978641076</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>1.000031421086823</v>
       </c>
-      <c r="F19">
+      <c r="F23">
+        <v>0.9998742978641076</v>
+      </c>
+      <c r="G23">
         <v>1.000031421086823</v>
       </c>
-      <c r="G19">
+      <c r="H23">
         <v>1.000083797636532</v>
       </c>
-      <c r="H19">
+      <c r="I23">
         <v>0.9999308649736021</v>
       </c>
-      <c r="I19">
+      <c r="J23">
         <v>1.000031421086823</v>
       </c>
-      <c r="J19">
-        <v>0.9998742978641076</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.000031421086823</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000031421086823</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9999528594754654</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9999528594754654</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9999455279748443</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999790466792513</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999790466792513</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999921402811442</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999921402811442</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999972039557852</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000043566263338</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="D3">
-        <v>0.9998257305743418</v>
+        <v>0.9981765826801066</v>
       </c>
       <c r="E3">
-        <v>1.000043566263338</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="F3">
-        <v>0.9998257305743418</v>
+        <v>0.9981765826801066</v>
       </c>
       <c r="G3">
-        <v>1.000043566263338</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="H3">
-        <v>1.000116182718785</v>
+        <v>1.001215613645531</v>
       </c>
       <c r="I3">
-        <v>0.9999041516380389</v>
+        <v>0.9989971205547606</v>
       </c>
       <c r="J3">
-        <v>1.000043566263338</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="K3">
-        <v>1.000043566263338</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="L3">
-        <v>1.000043566263338</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="M3">
-        <v>0.9999346484188401</v>
+        <v>0.9993162166930786</v>
       </c>
       <c r="N3">
-        <v>0.9999346484188401</v>
+        <v>0.9993162166930786</v>
       </c>
       <c r="O3">
-        <v>0.9999244828252397</v>
+        <v>0.9992098513136393</v>
       </c>
       <c r="P3">
-        <v>0.9999709543670061</v>
+        <v>0.9996960946974026</v>
       </c>
       <c r="Q3">
-        <v>0.9999709543670061</v>
+        <v>0.9996960946974026</v>
       </c>
       <c r="R3">
-        <v>0.9999891073410891</v>
+        <v>0.9998860336995646</v>
       </c>
       <c r="S3">
-        <v>0.9999891073410891</v>
+        <v>0.9998860336995646</v>
       </c>
       <c r="T3">
-        <v>0.9999961272868633</v>
+        <v>0.9999594781664248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000084105684225</v>
+        <v>1.000417121912042</v>
       </c>
       <c r="D4">
-        <v>0.999663574283895</v>
+        <v>0.9983314978009702</v>
       </c>
       <c r="E4">
-        <v>1.000084105684225</v>
+        <v>1.000417121912042</v>
       </c>
       <c r="F4">
-        <v>0.999663574283895</v>
+        <v>0.9983314978009702</v>
       </c>
       <c r="G4">
-        <v>1.000084105684225</v>
+        <v>1.000417121912042</v>
       </c>
       <c r="H4">
-        <v>1.000224288220767</v>
+        <v>1.001112336639953</v>
       </c>
       <c r="I4">
-        <v>0.9998149660040454</v>
+        <v>0.9990823239079358</v>
       </c>
       <c r="J4">
-        <v>1.000084105684225</v>
+        <v>1.000417121912042</v>
       </c>
       <c r="K4">
-        <v>1.000084105684225</v>
+        <v>1.000417121912042</v>
       </c>
       <c r="L4">
-        <v>1.000084105684225</v>
+        <v>1.000417121912042</v>
       </c>
       <c r="M4">
-        <v>0.9998738399840599</v>
+        <v>0.9993743098565062</v>
       </c>
       <c r="N4">
-        <v>0.9998738399840599</v>
+        <v>0.9993743098565062</v>
       </c>
       <c r="O4">
-        <v>0.9998542153240551</v>
+        <v>0.9992769812069827</v>
       </c>
       <c r="P4">
-        <v>0.9999439285507815</v>
+        <v>0.9997219138750183</v>
       </c>
       <c r="Q4">
-        <v>0.9999439285507815</v>
+        <v>0.9997219138750183</v>
       </c>
       <c r="R4">
-        <v>0.9999789728341423</v>
+        <v>0.9998957158842743</v>
       </c>
       <c r="S4">
-        <v>0.9999789728341423</v>
+        <v>0.9998957158842743</v>
       </c>
       <c r="T4">
-        <v>0.9999925242602302</v>
+        <v>0.9999629206808308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000161177405645</v>
+        <v>1.000529526792458</v>
       </c>
       <c r="D5">
-        <v>0.9993552797451722</v>
+        <v>0.9978818950673862</v>
       </c>
       <c r="E5">
-        <v>1.000161177405645</v>
+        <v>1.000529526792458</v>
       </c>
       <c r="F5">
-        <v>0.9993552797451722</v>
+        <v>0.9978818950673862</v>
       </c>
       <c r="G5">
-        <v>1.000161177405645</v>
+        <v>1.000529526792458</v>
       </c>
       <c r="H5">
-        <v>1.000429813370953</v>
+        <v>1.001412077196767</v>
       </c>
       <c r="I5">
-        <v>0.9996454035408682</v>
+        <v>0.9988350410242611</v>
       </c>
       <c r="J5">
-        <v>1.000161177405645</v>
+        <v>1.000529526792458</v>
       </c>
       <c r="K5">
-        <v>1.000161177405645</v>
+        <v>1.000529526792458</v>
       </c>
       <c r="L5">
-        <v>1.000161177405645</v>
+        <v>1.000529526792458</v>
       </c>
       <c r="M5">
-        <v>0.9997582285754085</v>
+        <v>0.9992057109299221</v>
       </c>
       <c r="N5">
-        <v>0.9997582285754085</v>
+        <v>0.9992057109299221</v>
       </c>
       <c r="O5">
-        <v>0.9997206202305616</v>
+        <v>0.9990821542947018</v>
       </c>
       <c r="P5">
-        <v>0.999892544852154</v>
+        <v>0.9996469828841006</v>
       </c>
       <c r="Q5">
-        <v>0.999892544852154</v>
+        <v>0.9996469828841006</v>
       </c>
       <c r="R5">
-        <v>0.9999597029905266</v>
+        <v>0.9998676188611899</v>
       </c>
       <c r="S5">
-        <v>0.9999597029905266</v>
+        <v>0.9998676188611899</v>
       </c>
       <c r="T5">
-        <v>0.999985671478988</v>
+        <v>0.9999529322776314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000236393446219</v>
+        <v>1.00059845181818</v>
       </c>
       <c r="D6">
-        <v>0.9990544044105775</v>
+        <v>0.9976061670454545</v>
       </c>
       <c r="E6">
-        <v>1.000236393446219</v>
+        <v>1.00059845181818</v>
       </c>
       <c r="F6">
-        <v>0.9990544044105775</v>
+        <v>0.9976061670454545</v>
       </c>
       <c r="G6">
-        <v>1.000236393446219</v>
+        <v>1.00059845181818</v>
       </c>
       <c r="H6">
-        <v>1.000630413010154</v>
+        <v>1.0015958875</v>
       </c>
       <c r="I6">
-        <v>0.9994799234400336</v>
+        <v>0.9986833893749986</v>
       </c>
       <c r="J6">
-        <v>1.000236393446219</v>
+        <v>1.00059845181818</v>
       </c>
       <c r="K6">
-        <v>1.000236393446219</v>
+        <v>1.00059845181818</v>
       </c>
       <c r="L6">
-        <v>1.000236393446219</v>
+        <v>1.00059845181818</v>
       </c>
       <c r="M6">
-        <v>0.9996453989283984</v>
+        <v>0.9991023094318172</v>
       </c>
       <c r="N6">
-        <v>0.9996453989283984</v>
+        <v>0.9991023094318172</v>
       </c>
       <c r="O6">
-        <v>0.9995902404322768</v>
+        <v>0.9989626694128777</v>
       </c>
       <c r="P6">
-        <v>0.9998423971010054</v>
+        <v>0.9996010235606049</v>
       </c>
       <c r="Q6">
-        <v>0.9998423971010054</v>
+        <v>0.9996010235606049</v>
       </c>
       <c r="R6">
-        <v>0.9999408961873089</v>
+        <v>0.9998503806249988</v>
       </c>
       <c r="S6">
-        <v>0.9999408961873089</v>
+        <v>0.9998503806249988</v>
       </c>
       <c r="T6">
-        <v>0.9999789868665706</v>
+        <v>0.9999467998958322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000003105044205</v>
+        <v>1.000253515242098</v>
       </c>
       <c r="D7">
-        <v>0.9999875767389075</v>
+        <v>0.9989859299273912</v>
       </c>
       <c r="E7">
-        <v>1.000003105044205</v>
+        <v>1.000253515242098</v>
       </c>
       <c r="F7">
-        <v>0.9999875767389075</v>
+        <v>0.9989859299273912</v>
       </c>
       <c r="G7">
-        <v>1.000003105044205</v>
+        <v>1.000253515242098</v>
       </c>
       <c r="H7">
-        <v>1.00000828475663</v>
+        <v>1.000676050031737</v>
       </c>
       <c r="I7">
-        <v>0.9999931671206129</v>
+        <v>0.9994422665604503</v>
       </c>
       <c r="J7">
-        <v>1.000003105044205</v>
+        <v>1.000253515242098</v>
       </c>
       <c r="K7">
-        <v>1.000003105044205</v>
+        <v>1.000253515242098</v>
       </c>
       <c r="L7">
-        <v>1.000003105044205</v>
+        <v>1.000253515242098</v>
       </c>
       <c r="M7">
-        <v>0.9999953408915564</v>
+        <v>0.9996197225847447</v>
       </c>
       <c r="N7">
-        <v>0.9999953408915564</v>
+        <v>0.9996197225847447</v>
       </c>
       <c r="O7">
-        <v>0.999994616301242</v>
+        <v>0.9995605705766466</v>
       </c>
       <c r="P7">
-        <v>0.9999979289424393</v>
+        <v>0.9998309868038625</v>
       </c>
       <c r="Q7">
-        <v>0.9999979289424393</v>
+        <v>0.9998309868038625</v>
       </c>
       <c r="R7">
-        <v>0.9999992229678808</v>
+        <v>0.9999366189134216</v>
       </c>
       <c r="S7">
-        <v>0.9999992229678808</v>
+        <v>0.9999366189134216</v>
       </c>
       <c r="T7">
-        <v>0.9999997239581276</v>
+        <v>0.9999774653743123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000007915867432</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="D8">
-        <v>0.9999683336938797</v>
+        <v>0.9989457240556792</v>
       </c>
       <c r="E8">
-        <v>1.000007915867432</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="F8">
-        <v>0.9999683336938797</v>
+        <v>0.9989457240556792</v>
       </c>
       <c r="G8">
-        <v>1.000007915867432</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="H8">
-        <v>1.000021113560531</v>
+        <v>1.000702853908073</v>
       </c>
       <c r="I8">
-        <v>0.9999825833826359</v>
+        <v>0.9994201533106584</v>
       </c>
       <c r="J8">
-        <v>1.000007915867432</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="K8">
-        <v>1.000007915867432</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="L8">
-        <v>1.000007915867432</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="M8">
-        <v>0.9999881247806559</v>
+        <v>0.9996046453964307</v>
       </c>
       <c r="N8">
-        <v>0.9999881247806559</v>
+        <v>0.9996046453964307</v>
       </c>
       <c r="O8">
-        <v>0.9999862776479826</v>
+        <v>0.9995431480345065</v>
       </c>
       <c r="P8">
-        <v>0.9999947218095814</v>
+        <v>0.9998242858433478</v>
       </c>
       <c r="Q8">
-        <v>0.9999947218095814</v>
+        <v>0.9998242858433478</v>
       </c>
       <c r="R8">
-        <v>0.9999980203240441</v>
+        <v>0.9999341060668063</v>
       </c>
       <c r="S8">
-        <v>0.9999980203240441</v>
+        <v>0.9999341060668063</v>
       </c>
       <c r="T8">
-        <v>0.9999992963732239</v>
+        <v>0.999976571914326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00001108369779</v>
+        <v>1.000272145538682</v>
       </c>
       <c r="D9">
-        <v>0.9999556618337458</v>
+        <v>0.9989114089512264</v>
       </c>
       <c r="E9">
-        <v>1.00001108369779</v>
+        <v>1.000272145538682</v>
       </c>
       <c r="F9">
-        <v>0.9999556618337458</v>
+        <v>0.9989114089512264</v>
       </c>
       <c r="G9">
-        <v>1.00001108369779</v>
+        <v>1.000272145538682</v>
       </c>
       <c r="H9">
-        <v>1.000029561020586</v>
+        <v>1.000725730627955</v>
       </c>
       <c r="I9">
-        <v>0.9999756139985984</v>
+        <v>0.9994012799713452</v>
       </c>
       <c r="J9">
-        <v>1.00001108369779</v>
+        <v>1.000272145538682</v>
       </c>
       <c r="K9">
-        <v>1.00001108369779</v>
+        <v>1.000272145538682</v>
       </c>
       <c r="L9">
-        <v>1.00001108369779</v>
+        <v>1.000272145538682</v>
       </c>
       <c r="M9">
-        <v>0.9999833727657677</v>
+        <v>0.9995917772449543</v>
       </c>
       <c r="N9">
-        <v>0.9999833727657677</v>
+        <v>0.9995917772449543</v>
       </c>
       <c r="O9">
-        <v>0.9999807865100445</v>
+        <v>0.9995282781537513</v>
       </c>
       <c r="P9">
-        <v>0.9999926097431082</v>
+        <v>0.999818566676197</v>
       </c>
       <c r="Q9">
-        <v>0.9999926097431082</v>
+        <v>0.999818566676197</v>
       </c>
       <c r="R9">
-        <v>0.9999972282317786</v>
+        <v>0.9999319613918183</v>
       </c>
       <c r="S9">
-        <v>0.9999972282317786</v>
+        <v>0.9999319613918183</v>
       </c>
       <c r="T9">
-        <v>0.9999990146577166</v>
+        <v>0.9999758093610955</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000023900145463</v>
+        <v>1.000292422605796</v>
       </c>
       <c r="D10">
-        <v>0.9999043960420384</v>
+        <v>0.9988303024314296</v>
       </c>
       <c r="E10">
-        <v>1.000023900145463</v>
+        <v>1.000292422605796</v>
       </c>
       <c r="F10">
-        <v>0.9999043960420384</v>
+        <v>0.9988303024314296</v>
       </c>
       <c r="G10">
-        <v>1.000023900145463</v>
+        <v>1.000292422605796</v>
       </c>
       <c r="H10">
-        <v>1.000063739282692</v>
+        <v>1.000779801690723</v>
       </c>
       <c r="I10">
-        <v>0.9999474174836135</v>
+        <v>0.9993566713451828</v>
       </c>
       <c r="J10">
-        <v>1.000023900145463</v>
+        <v>1.000292422605796</v>
       </c>
       <c r="K10">
-        <v>1.000023900145463</v>
+        <v>1.000292422605796</v>
       </c>
       <c r="L10">
-        <v>1.000023900145463</v>
+        <v>1.000292422605796</v>
       </c>
       <c r="M10">
-        <v>0.9999641480937508</v>
+        <v>0.9995613625186126</v>
       </c>
       <c r="N10">
-        <v>0.9999641480937508</v>
+        <v>0.9995613625186126</v>
       </c>
       <c r="O10">
-        <v>0.999958571223705</v>
+        <v>0.9994931321274693</v>
       </c>
       <c r="P10">
-        <v>0.9999840654443215</v>
+        <v>0.9998050492143403</v>
       </c>
       <c r="Q10">
-        <v>0.9999840654443215</v>
+        <v>0.9998050492143403</v>
       </c>
       <c r="R10">
-        <v>0.9999940241196069</v>
+        <v>0.9999268925622041</v>
       </c>
       <c r="S10">
-        <v>0.9999940241196069</v>
+        <v>0.9999268925622041</v>
       </c>
       <c r="T10">
-        <v>0.9999978755407888</v>
+        <v>0.9999740072141203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000039645164463</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="D11">
-        <v>0.9998414139570424</v>
+        <v>0.9998097266438388</v>
       </c>
       <c r="E11">
-        <v>1.000039645164463</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="F11">
-        <v>0.9998414139570424</v>
+        <v>0.9998097266438388</v>
       </c>
       <c r="G11">
-        <v>1.000039645164463</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="H11">
-        <v>1.000105726445632</v>
+        <v>1.000126852222639</v>
       </c>
       <c r="I11">
-        <v>0.9999127754669546</v>
+        <v>0.999895349546544</v>
       </c>
       <c r="J11">
-        <v>1.000039645164463</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="K11">
-        <v>1.000039645164463</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="L11">
-        <v>1.000039645164463</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="M11">
-        <v>0.9999405295607527</v>
+        <v>0.9999286468385222</v>
       </c>
       <c r="N11">
-        <v>0.9999405295607527</v>
+        <v>0.9999286468385222</v>
       </c>
       <c r="O11">
-        <v>0.9999312781961534</v>
+        <v>0.9999175477411962</v>
       </c>
       <c r="P11">
-        <v>0.9999735680953229</v>
+        <v>0.9999682869034167</v>
       </c>
       <c r="Q11">
-        <v>0.9999735680953229</v>
+        <v>0.9999682869034167</v>
       </c>
       <c r="R11">
-        <v>0.999990087362608</v>
+        <v>0.9999881069358639</v>
       </c>
       <c r="S11">
-        <v>0.999990087362608</v>
+        <v>0.9999881069358639</v>
       </c>
       <c r="T11">
-        <v>0.9999964752271698</v>
+        <v>0.9999957715854397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9996486092097823</v>
+        <v>1.000022731797969</v>
       </c>
       <c r="D12">
-        <v>1.001405579072191</v>
+        <v>0.9999090690462967</v>
       </c>
       <c r="E12">
-        <v>0.9996486092097823</v>
+        <v>1.000022731797969</v>
       </c>
       <c r="F12">
-        <v>1.001405579072191</v>
+        <v>0.9999090690462967</v>
       </c>
       <c r="G12">
-        <v>0.9996486092097823</v>
+        <v>1.000022731797969</v>
       </c>
       <c r="H12">
-        <v>0.9990629566350978</v>
+        <v>1.000060623516145</v>
       </c>
       <c r="I12">
-        <v>1.000773066766072</v>
+        <v>0.9999499879351572</v>
       </c>
       <c r="J12">
-        <v>0.9996486092097823</v>
+        <v>1.000022731797969</v>
       </c>
       <c r="K12">
-        <v>0.9996486092097823</v>
+        <v>1.000022731797969</v>
       </c>
       <c r="L12">
-        <v>0.9996486092097823</v>
+        <v>1.000022731797969</v>
       </c>
       <c r="M12">
-        <v>1.000527094140987</v>
+        <v>0.9999659004221328</v>
       </c>
       <c r="N12">
-        <v>1.000527094140987</v>
+        <v>0.9999659004221328</v>
       </c>
       <c r="O12">
-        <v>1.000609085016015</v>
+        <v>0.9999605962598076</v>
       </c>
       <c r="P12">
-        <v>1.000234265830585</v>
+        <v>0.9999848442140782</v>
       </c>
       <c r="Q12">
-        <v>1.000234265830585</v>
+        <v>0.9999848442140782</v>
       </c>
       <c r="R12">
-        <v>1.000087851675384</v>
+        <v>0.9999943161100509</v>
       </c>
       <c r="S12">
-        <v>1.000087851675384</v>
+        <v>0.9999943161100509</v>
       </c>
       <c r="T12">
-        <v>1.000031238350451</v>
+        <v>0.999997979315251</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999909272165817</v>
+        <v>1.000076589418327</v>
       </c>
       <c r="D13">
-        <v>1.000362898628533</v>
+        <v>0.9996936450030557</v>
       </c>
       <c r="E13">
-        <v>0.999909272165817</v>
+        <v>1.000076589418327</v>
       </c>
       <c r="F13">
-        <v>1.000362898628533</v>
+        <v>0.9996936450030557</v>
       </c>
       <c r="G13">
-        <v>0.999909272165817</v>
+        <v>1.000076589418327</v>
       </c>
       <c r="H13">
-        <v>0.9997580670945519</v>
+        <v>1.000204241963252</v>
       </c>
       <c r="I13">
-        <v>1.000199594004473</v>
+        <v>0.999831504082741</v>
       </c>
       <c r="J13">
-        <v>0.999909272165817</v>
+        <v>1.000076589418327</v>
       </c>
       <c r="K13">
-        <v>0.999909272165817</v>
+        <v>1.000076589418327</v>
       </c>
       <c r="L13">
-        <v>0.999909272165817</v>
+        <v>1.000076589418327</v>
       </c>
       <c r="M13">
-        <v>1.000136085397175</v>
+        <v>0.9998851172106913</v>
       </c>
       <c r="N13">
-        <v>1.000136085397175</v>
+        <v>0.9998851172106913</v>
       </c>
       <c r="O13">
-        <v>1.000157254932941</v>
+        <v>0.9998672461680412</v>
       </c>
       <c r="P13">
-        <v>1.000060480986723</v>
+        <v>0.9999489412799032</v>
       </c>
       <c r="Q13">
-        <v>1.000060480986723</v>
+        <v>0.9999489412799032</v>
       </c>
       <c r="R13">
-        <v>1.000022678781496</v>
+        <v>0.9999808533145091</v>
       </c>
       <c r="S13">
-        <v>1.000022678781496</v>
+        <v>0.9999808533145091</v>
       </c>
       <c r="T13">
-        <v>1.000008062704168</v>
+        <v>0.9999931932173384</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9996486382132348</v>
+        <v>1.000121477939558</v>
       </c>
       <c r="D14">
-        <v>1.001405501410092</v>
+        <v>0.9995140759030113</v>
       </c>
       <c r="E14">
-        <v>0.9996486382132348</v>
+        <v>1.000121477939558</v>
       </c>
       <c r="F14">
-        <v>1.001405501410092</v>
+        <v>0.9995140759030113</v>
       </c>
       <c r="G14">
-        <v>0.9996486382132348</v>
+        <v>1.000121477939558</v>
       </c>
       <c r="H14">
-        <v>0.9990629917679428</v>
+        <v>1.000323952052079</v>
       </c>
       <c r="I14">
-        <v>1.000773025470039</v>
+        <v>0.999732739139042</v>
       </c>
       <c r="J14">
-        <v>0.9996486382132348</v>
+        <v>1.000121477939558</v>
       </c>
       <c r="K14">
-        <v>0.9996486382132348</v>
+        <v>1.000121477939558</v>
       </c>
       <c r="L14">
-        <v>0.9996486382132348</v>
+        <v>1.000121477939558</v>
       </c>
       <c r="M14">
-        <v>1.000527069811664</v>
+        <v>0.9998177769212848</v>
       </c>
       <c r="N14">
-        <v>1.000527069811664</v>
+        <v>0.9998177769212848</v>
       </c>
       <c r="O14">
-        <v>1.000609055031122</v>
+        <v>0.9997894309938706</v>
       </c>
       <c r="P14">
-        <v>1.000234259278854</v>
+        <v>0.9999190105940426</v>
       </c>
       <c r="Q14">
-        <v>1.000234259278854</v>
+        <v>0.9999190105940426</v>
       </c>
       <c r="R14">
-        <v>1.000087854012449</v>
+        <v>0.9999696274304215</v>
       </c>
       <c r="S14">
-        <v>1.000087854012449</v>
+        <v>0.9999696274304215</v>
       </c>
       <c r="T14">
-        <v>1.000031238881296</v>
+        <v>0.9999892001521345</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.999909271810911</v>
+        <v>1.000043566263338</v>
       </c>
       <c r="D15">
-        <v>1.000362877124751</v>
+        <v>0.9998257305743418</v>
       </c>
       <c r="E15">
-        <v>0.999909271810911</v>
+        <v>1.000043566263338</v>
       </c>
       <c r="F15">
-        <v>1.000362877124751</v>
+        <v>0.9998257305743418</v>
       </c>
       <c r="G15">
-        <v>0.999909271810911</v>
+        <v>1.000043566263338</v>
       </c>
       <c r="H15">
-        <v>0.9997580801805364</v>
+        <v>1.000116182718785</v>
       </c>
       <c r="I15">
-        <v>1.000199582659947</v>
+        <v>0.9999041516380389</v>
       </c>
       <c r="J15">
-        <v>0.999909271810911</v>
+        <v>1.000043566263338</v>
       </c>
       <c r="K15">
-        <v>0.999909271810911</v>
+        <v>1.000043566263338</v>
       </c>
       <c r="L15">
-        <v>0.999909271810911</v>
+        <v>1.000043566263338</v>
       </c>
       <c r="M15">
-        <v>1.000136074467831</v>
+        <v>0.9999346484188401</v>
       </c>
       <c r="N15">
-        <v>1.000136074467831</v>
+        <v>0.9999346484188401</v>
       </c>
       <c r="O15">
-        <v>1.000157243865203</v>
+        <v>0.9999244828252397</v>
       </c>
       <c r="P15">
-        <v>1.000060473582191</v>
+        <v>0.9999709543670061</v>
       </c>
       <c r="Q15">
-        <v>1.000060473582191</v>
+        <v>0.9999709543670061</v>
       </c>
       <c r="R15">
-        <v>1.000022673139371</v>
+        <v>0.9999891073410891</v>
       </c>
       <c r="S15">
-        <v>1.000022673139371</v>
+        <v>0.9999891073410891</v>
       </c>
       <c r="T15">
-        <v>1.000008059232995</v>
+        <v>0.9999961272868633</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000849777159967</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="D16">
-        <v>0.9966008566744176</v>
+        <v>0.999663574283895</v>
       </c>
       <c r="E16">
-        <v>1.000849777159967</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="F16">
-        <v>0.9966008566744176</v>
+        <v>0.999663574283895</v>
       </c>
       <c r="G16">
-        <v>1.000849777159967</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="H16">
-        <v>1.002266107904375</v>
+        <v>1.000224288220767</v>
       </c>
       <c r="I16">
-        <v>0.9981304718238739</v>
+        <v>0.9998149660040454</v>
       </c>
       <c r="J16">
-        <v>1.000849777159967</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="K16">
-        <v>1.000849777159967</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="L16">
-        <v>1.000849777159967</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="M16">
-        <v>0.9987253169171921</v>
+        <v>0.9998738399840599</v>
       </c>
       <c r="N16">
-        <v>0.9987253169171921</v>
+        <v>0.9998738399840599</v>
       </c>
       <c r="O16">
-        <v>0.9985270352194194</v>
+        <v>0.9998542153240551</v>
       </c>
       <c r="P16">
-        <v>0.9994334703314504</v>
+        <v>0.9999439285507815</v>
       </c>
       <c r="Q16">
-        <v>0.9994334703314504</v>
+        <v>0.9999439285507815</v>
       </c>
       <c r="R16">
-        <v>0.9997875470385794</v>
+        <v>0.9999789728341423</v>
       </c>
       <c r="S16">
-        <v>0.9997875470385794</v>
+        <v>0.9999789728341423</v>
       </c>
       <c r="T16">
-        <v>0.9999244613137611</v>
+        <v>0.9999925242602302</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000695368864984</v>
+        <v>1.000161177405645</v>
       </c>
       <c r="D17">
-        <v>0.9972184966128134</v>
+        <v>0.9993552797451722</v>
       </c>
       <c r="E17">
-        <v>1.000695368864984</v>
+        <v>1.000161177405645</v>
       </c>
       <c r="F17">
-        <v>0.9972184966128134</v>
+        <v>0.9993552797451722</v>
       </c>
       <c r="G17">
-        <v>1.000695368864984</v>
+        <v>1.000161177405645</v>
       </c>
       <c r="H17">
-        <v>1.00185434437581</v>
+        <v>1.000429813370953</v>
       </c>
       <c r="I17">
-        <v>0.9984701736213616</v>
+        <v>0.9996454035408682</v>
       </c>
       <c r="J17">
-        <v>1.000695368864984</v>
+        <v>1.000161177405645</v>
       </c>
       <c r="K17">
-        <v>1.000695368864984</v>
+        <v>1.000161177405645</v>
       </c>
       <c r="L17">
-        <v>1.000695368864984</v>
+        <v>1.000161177405645</v>
       </c>
       <c r="M17">
-        <v>0.9989569327388987</v>
+        <v>0.9997582285754085</v>
       </c>
       <c r="N17">
-        <v>0.9989569327388987</v>
+        <v>0.9997582285754085</v>
       </c>
       <c r="O17">
-        <v>0.9987946796997197</v>
+        <v>0.9997206202305616</v>
       </c>
       <c r="P17">
-        <v>0.9995364114475939</v>
+        <v>0.999892544852154</v>
       </c>
       <c r="Q17">
-        <v>0.9995364114475939</v>
+        <v>0.999892544852154</v>
       </c>
       <c r="R17">
-        <v>0.9998261508019415</v>
+        <v>0.9999597029905266</v>
       </c>
       <c r="S17">
-        <v>0.9998261508019415</v>
+        <v>0.9999597029905266</v>
       </c>
       <c r="T17">
-        <v>0.9999381868674896</v>
+        <v>0.999985671478988</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000384885456394</v>
+        <v>1.000236393446219</v>
       </c>
       <c r="D18">
-        <v>0.9984604414307865</v>
+        <v>0.9990544044105775</v>
       </c>
       <c r="E18">
-        <v>1.000384885456394</v>
+        <v>1.000236393446219</v>
       </c>
       <c r="F18">
-        <v>0.9984604414307865</v>
+        <v>0.9990544044105775</v>
       </c>
       <c r="G18">
-        <v>1.000384885456394</v>
+        <v>1.000236393446219</v>
       </c>
       <c r="H18">
-        <v>1.001026373353048</v>
+        <v>1.000630413010154</v>
       </c>
       <c r="I18">
-        <v>0.9991532433243213</v>
+        <v>0.9994799234400336</v>
       </c>
       <c r="J18">
-        <v>1.000384885456394</v>
+        <v>1.000236393446219</v>
       </c>
       <c r="K18">
-        <v>1.000384885456394</v>
+        <v>1.000236393446219</v>
       </c>
       <c r="L18">
-        <v>1.000384885456394</v>
+        <v>1.000236393446219</v>
       </c>
       <c r="M18">
-        <v>0.9994226634435903</v>
+        <v>0.9996453989283984</v>
       </c>
       <c r="N18">
-        <v>0.9994226634435903</v>
+        <v>0.9996453989283984</v>
       </c>
       <c r="O18">
-        <v>0.9993328567371673</v>
+        <v>0.9995902404322768</v>
       </c>
       <c r="P18">
-        <v>0.9997434041145249</v>
+        <v>0.9998423971010054</v>
       </c>
       <c r="Q18">
-        <v>0.9997434041145249</v>
+        <v>0.9998423971010054</v>
       </c>
       <c r="R18">
-        <v>0.9999037744499921</v>
+        <v>0.9999408961873089</v>
       </c>
       <c r="S18">
-        <v>0.9999037744499921</v>
+        <v>0.9999408961873089</v>
       </c>
       <c r="T18">
-        <v>0.9999657857462229</v>
+        <v>0.9999789868665706</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000420145886323</v>
+        <v>1.000003105044205</v>
       </c>
       <c r="D19">
-        <v>0.9983193950194883</v>
+        <v>0.9999875767389075</v>
       </c>
       <c r="E19">
-        <v>1.000420145886323</v>
+        <v>1.000003105044205</v>
       </c>
       <c r="F19">
-        <v>0.9983193950194883</v>
+        <v>0.9999875767389075</v>
       </c>
       <c r="G19">
-        <v>1.000420145886323</v>
+        <v>1.000003105044205</v>
       </c>
       <c r="H19">
-        <v>1.001120402714013</v>
+        <v>1.00000828475663</v>
       </c>
       <c r="I19">
-        <v>0.999075667663112</v>
+        <v>0.9999931671206129</v>
       </c>
       <c r="J19">
-        <v>1.000420145886323</v>
+        <v>1.000003105044205</v>
       </c>
       <c r="K19">
-        <v>1.000420145886323</v>
+        <v>1.000003105044205</v>
       </c>
       <c r="L19">
-        <v>1.000420145886323</v>
+        <v>1.000003105044205</v>
       </c>
       <c r="M19">
-        <v>0.9993697704529056</v>
+        <v>0.9999953408915564</v>
       </c>
       <c r="N19">
-        <v>0.9993697704529056</v>
+        <v>0.9999953408915564</v>
       </c>
       <c r="O19">
-        <v>0.999271736189641</v>
+        <v>0.999994616301242</v>
       </c>
       <c r="P19">
-        <v>0.9997198955973782</v>
+        <v>0.9999979289424393</v>
       </c>
       <c r="Q19">
-        <v>0.9997198955973782</v>
+        <v>0.9999979289424393</v>
       </c>
       <c r="R19">
-        <v>0.9998949581696144</v>
+        <v>0.9999992229678808</v>
       </c>
       <c r="S19">
-        <v>0.9998949581696144</v>
+        <v>0.9999992229678808</v>
       </c>
       <c r="T19">
-        <v>0.9999626505092639</v>
+        <v>0.9999997239581276</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.00000017884976</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="D20">
-        <v>0.9999992813743712</v>
+        <v>0.9999683336938797</v>
       </c>
       <c r="E20">
-        <v>1.00000017884976</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="F20">
-        <v>0.9999992813743712</v>
+        <v>0.9999683336938797</v>
       </c>
       <c r="G20">
-        <v>1.00000017884976</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="H20">
-        <v>1.000000481555452</v>
+        <v>1.000021113560531</v>
       </c>
       <c r="I20">
-        <v>0.9999996046812091</v>
+        <v>0.9999825833826359</v>
       </c>
       <c r="J20">
-        <v>1.00000017884976</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="K20">
-        <v>1.00000017884976</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="L20">
-        <v>1.00000017884976</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="M20">
-        <v>0.9999997301120657</v>
+        <v>0.9999881247806559</v>
       </c>
       <c r="N20">
-        <v>0.9999997301120657</v>
+        <v>0.9999881247806559</v>
       </c>
       <c r="O20">
-        <v>0.9999996883017802</v>
+        <v>0.9999862776479826</v>
       </c>
       <c r="P20">
-        <v>0.9999998796912971</v>
+        <v>0.9999947218095814</v>
       </c>
       <c r="Q20">
-        <v>0.9999998796912971</v>
+        <v>0.9999947218095814</v>
       </c>
       <c r="R20">
-        <v>0.9999999544809128</v>
+        <v>0.9999980203240441</v>
       </c>
       <c r="S20">
-        <v>0.9999999544809128</v>
+        <v>0.9999980203240441</v>
       </c>
       <c r="T20">
-        <v>0.9999999840267186</v>
+        <v>0.9999992963732239</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000003809022546</v>
+        <v>1.00001108369779</v>
       </c>
       <c r="D21">
-        <v>0.999984760761442</v>
+        <v>0.9999556618337458</v>
       </c>
       <c r="E21">
-        <v>1.000003809022546</v>
+        <v>1.00001108369779</v>
       </c>
       <c r="F21">
-        <v>0.999984760761442</v>
+        <v>0.9999556618337458</v>
       </c>
       <c r="G21">
-        <v>1.000003809022546</v>
+        <v>1.00001108369779</v>
       </c>
       <c r="H21">
-        <v>1.000010162130821</v>
+        <v>1.000029561020586</v>
       </c>
       <c r="I21">
-        <v>0.9999916182417963</v>
+        <v>0.9999756139985984</v>
       </c>
       <c r="J21">
-        <v>1.000003809022546</v>
+        <v>1.00001108369779</v>
       </c>
       <c r="K21">
-        <v>1.000003809022546</v>
+        <v>1.00001108369779</v>
       </c>
       <c r="L21">
-        <v>1.000003809022546</v>
+        <v>1.00001108369779</v>
       </c>
       <c r="M21">
-        <v>0.9999942848919939</v>
+        <v>0.9999833727657677</v>
       </c>
       <c r="N21">
-        <v>0.9999942848919939</v>
+        <v>0.9999833727657677</v>
       </c>
       <c r="O21">
-        <v>0.9999933960085947</v>
+        <v>0.9999807865100445</v>
       </c>
       <c r="P21">
-        <v>0.9999974596021778</v>
+        <v>0.9999926097431082</v>
       </c>
       <c r="Q21">
-        <v>0.9999974596021778</v>
+        <v>0.9999926097431082</v>
       </c>
       <c r="R21">
-        <v>0.9999990469572698</v>
+        <v>0.9999972282317786</v>
       </c>
       <c r="S21">
-        <v>0.9999990469572698</v>
+        <v>0.9999972282317786</v>
       </c>
       <c r="T21">
-        <v>0.9999996613669495</v>
+        <v>0.9999990146577166</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000013413205217</v>
+        <v>1.000023900145463</v>
       </c>
       <c r="D22">
-        <v>0.9999463458713667</v>
+        <v>0.9999043960420384</v>
       </c>
       <c r="E22">
-        <v>1.000013413205217</v>
+        <v>1.000023900145463</v>
       </c>
       <c r="F22">
-        <v>0.9999463458713667</v>
+        <v>0.9999043960420384</v>
       </c>
       <c r="G22">
-        <v>1.000013413205217</v>
+        <v>1.000023900145463</v>
       </c>
       <c r="H22">
-        <v>1.000035772830209</v>
+        <v>1.000063739282692</v>
       </c>
       <c r="I22">
-        <v>0.9999704888985416</v>
+        <v>0.9999474174836135</v>
       </c>
       <c r="J22">
-        <v>1.000013413205217</v>
+        <v>1.000023900145463</v>
       </c>
       <c r="K22">
-        <v>1.000013413205217</v>
+        <v>1.000023900145463</v>
       </c>
       <c r="L22">
-        <v>1.000013413205217</v>
+        <v>1.000023900145463</v>
       </c>
       <c r="M22">
-        <v>0.9999798795382918</v>
+        <v>0.9999641480937508</v>
       </c>
       <c r="N22">
-        <v>0.9999798795382918</v>
+        <v>0.9999641480937508</v>
       </c>
       <c r="O22">
-        <v>0.9999767493250418</v>
+        <v>0.999958571223705</v>
       </c>
       <c r="P22">
-        <v>0.9999910574272669</v>
+        <v>0.9999840654443215</v>
       </c>
       <c r="Q22">
-        <v>0.9999910574272669</v>
+        <v>0.9999840654443215</v>
       </c>
       <c r="R22">
-        <v>0.9999966463717544</v>
+        <v>0.9999940241196069</v>
       </c>
       <c r="S22">
-        <v>0.9999966463717544</v>
+        <v>0.9999940241196069</v>
       </c>
       <c r="T22">
-        <v>0.9999988078692946</v>
+        <v>0.9999978755407888</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000039645164463</v>
+      </c>
+      <c r="D23">
+        <v>0.9998414139570424</v>
+      </c>
+      <c r="E23">
+        <v>1.000039645164463</v>
+      </c>
+      <c r="F23">
+        <v>0.9998414139570424</v>
+      </c>
+      <c r="G23">
+        <v>1.000039645164463</v>
+      </c>
+      <c r="H23">
+        <v>1.000105726445632</v>
+      </c>
+      <c r="I23">
+        <v>0.9999127754669546</v>
+      </c>
+      <c r="J23">
+        <v>1.000039645164463</v>
+      </c>
+      <c r="K23">
+        <v>1.000039645164463</v>
+      </c>
+      <c r="L23">
+        <v>1.000039645164463</v>
+      </c>
+      <c r="M23">
+        <v>0.9999405295607527</v>
+      </c>
+      <c r="N23">
+        <v>0.9999405295607527</v>
+      </c>
+      <c r="O23">
+        <v>0.9999312781961534</v>
+      </c>
+      <c r="P23">
+        <v>0.9999735680953229</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999735680953229</v>
+      </c>
+      <c r="R23">
+        <v>0.999990087362608</v>
+      </c>
+      <c r="S23">
+        <v>0.999990087362608</v>
+      </c>
+      <c r="T23">
+        <v>0.9999964752271698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="D24">
+        <v>1.001405579072191</v>
+      </c>
+      <c r="E24">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="F24">
+        <v>1.001405579072191</v>
+      </c>
+      <c r="G24">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="H24">
+        <v>0.9990629566350978</v>
+      </c>
+      <c r="I24">
+        <v>1.000773066766072</v>
+      </c>
+      <c r="J24">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="K24">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="L24">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="M24">
+        <v>1.000527094140987</v>
+      </c>
+      <c r="N24">
+        <v>1.000527094140987</v>
+      </c>
+      <c r="O24">
+        <v>1.000609085016015</v>
+      </c>
+      <c r="P24">
+        <v>1.000234265830585</v>
+      </c>
+      <c r="Q24">
+        <v>1.000234265830585</v>
+      </c>
+      <c r="R24">
+        <v>1.000087851675384</v>
+      </c>
+      <c r="S24">
+        <v>1.000087851675384</v>
+      </c>
+      <c r="T24">
+        <v>1.000031238350451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="D25">
+        <v>1.000362898628533</v>
+      </c>
+      <c r="E25">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="F25">
+        <v>1.000362898628533</v>
+      </c>
+      <c r="G25">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="H25">
+        <v>0.9997580670945519</v>
+      </c>
+      <c r="I25">
+        <v>1.000199594004473</v>
+      </c>
+      <c r="J25">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="K25">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="L25">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="M25">
+        <v>1.000136085397175</v>
+      </c>
+      <c r="N25">
+        <v>1.000136085397175</v>
+      </c>
+      <c r="O25">
+        <v>1.000157254932941</v>
+      </c>
+      <c r="P25">
+        <v>1.000060480986723</v>
+      </c>
+      <c r="Q25">
+        <v>1.000060480986723</v>
+      </c>
+      <c r="R25">
+        <v>1.000022678781496</v>
+      </c>
+      <c r="S25">
+        <v>1.000022678781496</v>
+      </c>
+      <c r="T25">
+        <v>1.000008062704168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="D26">
+        <v>1.001405501410092</v>
+      </c>
+      <c r="E26">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="F26">
+        <v>1.001405501410092</v>
+      </c>
+      <c r="G26">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="H26">
+        <v>0.9990629917679428</v>
+      </c>
+      <c r="I26">
+        <v>1.000773025470039</v>
+      </c>
+      <c r="J26">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="K26">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="L26">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="M26">
+        <v>1.000527069811664</v>
+      </c>
+      <c r="N26">
+        <v>1.000527069811664</v>
+      </c>
+      <c r="O26">
+        <v>1.000609055031122</v>
+      </c>
+      <c r="P26">
+        <v>1.000234259278854</v>
+      </c>
+      <c r="Q26">
+        <v>1.000234259278854</v>
+      </c>
+      <c r="R26">
+        <v>1.000087854012449</v>
+      </c>
+      <c r="S26">
+        <v>1.000087854012449</v>
+      </c>
+      <c r="T26">
+        <v>1.000031238881296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="D27">
+        <v>1.000362877124751</v>
+      </c>
+      <c r="E27">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="F27">
+        <v>1.000362877124751</v>
+      </c>
+      <c r="G27">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="H27">
+        <v>0.9997580801805364</v>
+      </c>
+      <c r="I27">
+        <v>1.000199582659947</v>
+      </c>
+      <c r="J27">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="K27">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="L27">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="M27">
+        <v>1.000136074467831</v>
+      </c>
+      <c r="N27">
+        <v>1.000136074467831</v>
+      </c>
+      <c r="O27">
+        <v>1.000157243865203</v>
+      </c>
+      <c r="P27">
+        <v>1.000060473582191</v>
+      </c>
+      <c r="Q27">
+        <v>1.000060473582191</v>
+      </c>
+      <c r="R27">
+        <v>1.000022673139371</v>
+      </c>
+      <c r="S27">
+        <v>1.000022673139371</v>
+      </c>
+      <c r="T27">
+        <v>1.000008059232995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000849777159967</v>
+      </c>
+      <c r="D28">
+        <v>0.9966008566744176</v>
+      </c>
+      <c r="E28">
+        <v>1.000849777159967</v>
+      </c>
+      <c r="F28">
+        <v>0.9966008566744176</v>
+      </c>
+      <c r="G28">
+        <v>1.000849777159967</v>
+      </c>
+      <c r="H28">
+        <v>1.002266107904375</v>
+      </c>
+      <c r="I28">
+        <v>0.9981304718238739</v>
+      </c>
+      <c r="J28">
+        <v>1.000849777159967</v>
+      </c>
+      <c r="K28">
+        <v>1.000849777159967</v>
+      </c>
+      <c r="L28">
+        <v>1.000849777159967</v>
+      </c>
+      <c r="M28">
+        <v>0.9987253169171921</v>
+      </c>
+      <c r="N28">
+        <v>0.9987253169171921</v>
+      </c>
+      <c r="O28">
+        <v>0.9985270352194194</v>
+      </c>
+      <c r="P28">
+        <v>0.9994334703314504</v>
+      </c>
+      <c r="Q28">
+        <v>0.9994334703314504</v>
+      </c>
+      <c r="R28">
+        <v>0.9997875470385794</v>
+      </c>
+      <c r="S28">
+        <v>0.9997875470385794</v>
+      </c>
+      <c r="T28">
+        <v>0.9999244613137611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000695368864984</v>
+      </c>
+      <c r="D29">
+        <v>0.9972184966128134</v>
+      </c>
+      <c r="E29">
+        <v>1.000695368864984</v>
+      </c>
+      <c r="F29">
+        <v>0.9972184966128134</v>
+      </c>
+      <c r="G29">
+        <v>1.000695368864984</v>
+      </c>
+      <c r="H29">
+        <v>1.00185434437581</v>
+      </c>
+      <c r="I29">
+        <v>0.9984701736213616</v>
+      </c>
+      <c r="J29">
+        <v>1.000695368864984</v>
+      </c>
+      <c r="K29">
+        <v>1.000695368864984</v>
+      </c>
+      <c r="L29">
+        <v>1.000695368864984</v>
+      </c>
+      <c r="M29">
+        <v>0.9989569327388987</v>
+      </c>
+      <c r="N29">
+        <v>0.9989569327388987</v>
+      </c>
+      <c r="O29">
+        <v>0.9987946796997197</v>
+      </c>
+      <c r="P29">
+        <v>0.9995364114475939</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995364114475939</v>
+      </c>
+      <c r="R29">
+        <v>0.9998261508019415</v>
+      </c>
+      <c r="S29">
+        <v>0.9998261508019415</v>
+      </c>
+      <c r="T29">
+        <v>0.9999381868674896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000384885456394</v>
+      </c>
+      <c r="D30">
+        <v>0.9984604414307865</v>
+      </c>
+      <c r="E30">
+        <v>1.000384885456394</v>
+      </c>
+      <c r="F30">
+        <v>0.9984604414307865</v>
+      </c>
+      <c r="G30">
+        <v>1.000384885456394</v>
+      </c>
+      <c r="H30">
+        <v>1.001026373353048</v>
+      </c>
+      <c r="I30">
+        <v>0.9991532433243213</v>
+      </c>
+      <c r="J30">
+        <v>1.000384885456394</v>
+      </c>
+      <c r="K30">
+        <v>1.000384885456394</v>
+      </c>
+      <c r="L30">
+        <v>1.000384885456394</v>
+      </c>
+      <c r="M30">
+        <v>0.9994226634435903</v>
+      </c>
+      <c r="N30">
+        <v>0.9994226634435903</v>
+      </c>
+      <c r="O30">
+        <v>0.9993328567371673</v>
+      </c>
+      <c r="P30">
+        <v>0.9997434041145249</v>
+      </c>
+      <c r="Q30">
+        <v>0.9997434041145249</v>
+      </c>
+      <c r="R30">
+        <v>0.9999037744499921</v>
+      </c>
+      <c r="S30">
+        <v>0.9999037744499921</v>
+      </c>
+      <c r="T30">
+        <v>0.9999657857462229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="D31">
+        <v>0.9983193950194883</v>
+      </c>
+      <c r="E31">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="F31">
+        <v>0.9983193950194883</v>
+      </c>
+      <c r="G31">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="H31">
+        <v>1.001120402714013</v>
+      </c>
+      <c r="I31">
+        <v>0.999075667663112</v>
+      </c>
+      <c r="J31">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="K31">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="L31">
+        <v>1.000420145886323</v>
+      </c>
+      <c r="M31">
+        <v>0.9993697704529056</v>
+      </c>
+      <c r="N31">
+        <v>0.9993697704529056</v>
+      </c>
+      <c r="O31">
+        <v>0.999271736189641</v>
+      </c>
+      <c r="P31">
+        <v>0.9997198955973782</v>
+      </c>
+      <c r="Q31">
+        <v>0.9997198955973782</v>
+      </c>
+      <c r="R31">
+        <v>0.9998949581696144</v>
+      </c>
+      <c r="S31">
+        <v>0.9998949581696144</v>
+      </c>
+      <c r="T31">
+        <v>0.9999626505092639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.001005515068494</v>
+      </c>
+      <c r="D32">
+        <v>0.9959779012328766</v>
+      </c>
+      <c r="E32">
+        <v>1.001005515068494</v>
+      </c>
+      <c r="F32">
+        <v>0.9959779012328766</v>
+      </c>
+      <c r="G32">
+        <v>1.001005515068494</v>
+      </c>
+      <c r="H32">
+        <v>1.002681415068494</v>
+      </c>
+      <c r="I32">
+        <v>0.9977878465753426</v>
+      </c>
+      <c r="J32">
+        <v>1.001005515068494</v>
+      </c>
+      <c r="K32">
+        <v>1.001005515068494</v>
+      </c>
+      <c r="L32">
+        <v>1.001005515068494</v>
+      </c>
+      <c r="M32">
+        <v>0.9984917081506852</v>
+      </c>
+      <c r="N32">
+        <v>0.9984917081506852</v>
+      </c>
+      <c r="O32">
+        <v>0.998257087625571</v>
+      </c>
+      <c r="P32">
+        <v>0.9993296437899547</v>
+      </c>
+      <c r="Q32">
+        <v>0.9993296437899547</v>
+      </c>
+      <c r="R32">
+        <v>0.9997486116095895</v>
+      </c>
+      <c r="S32">
+        <v>0.9997486116095895</v>
+      </c>
+      <c r="T32">
+        <v>0.9999106180136991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.000454258421053</v>
+      </c>
+      <c r="D33">
+        <v>0.998182957368421</v>
+      </c>
+      <c r="E33">
+        <v>1.000454258421053</v>
+      </c>
+      <c r="F33">
+        <v>0.998182957368421</v>
+      </c>
+      <c r="G33">
+        <v>1.000454258421053</v>
+      </c>
+      <c r="H33">
+        <v>1.001211360526316</v>
+      </c>
+      <c r="I33">
+        <v>0.999000627368421</v>
+      </c>
+      <c r="J33">
+        <v>1.000454258421053</v>
+      </c>
+      <c r="K33">
+        <v>1.000454258421053</v>
+      </c>
+      <c r="L33">
+        <v>1.000454258421053</v>
+      </c>
+      <c r="M33">
+        <v>0.9993186078947367</v>
+      </c>
+      <c r="N33">
+        <v>0.9993186078947367</v>
+      </c>
+      <c r="O33">
+        <v>0.9992126143859648</v>
+      </c>
+      <c r="P33">
+        <v>0.9996971580701753</v>
+      </c>
+      <c r="Q33">
+        <v>0.9996971580701753</v>
+      </c>
+      <c r="R33">
+        <v>0.9998864331578946</v>
+      </c>
+      <c r="S33">
+        <v>0.9998864331578946</v>
+      </c>
+      <c r="T33">
+        <v>0.9999596200877191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="D34">
+        <v>0.9981829994736842</v>
+      </c>
+      <c r="E34">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="F34">
+        <v>0.9981829994736842</v>
+      </c>
+      <c r="G34">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="H34">
+        <v>1.001211336842105</v>
+      </c>
+      <c r="I34">
+        <v>0.9990006542105263</v>
+      </c>
+      <c r="J34">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="K34">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="L34">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="M34">
+        <v>0.9993186239473685</v>
+      </c>
+      <c r="N34">
+        <v>0.9993186239473685</v>
+      </c>
+      <c r="O34">
+        <v>0.9992126340350879</v>
+      </c>
+      <c r="P34">
+        <v>0.9996971654385965</v>
+      </c>
+      <c r="Q34">
+        <v>0.9996971654385965</v>
+      </c>
+      <c r="R34">
+        <v>0.9998864361842106</v>
+      </c>
+      <c r="S34">
+        <v>0.9998864361842106</v>
+      </c>
+      <c r="T34">
+        <v>0.9999596226315791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.001529233967621</v>
+      </c>
+      <c r="D35">
+        <v>0.9938830621526554</v>
+      </c>
+      <c r="E35">
+        <v>1.001529233967621</v>
+      </c>
+      <c r="F35">
+        <v>0.9938830621526554</v>
+      </c>
+      <c r="G35">
+        <v>1.001529233967621</v>
+      </c>
+      <c r="H35">
+        <v>1.0040779628525</v>
+      </c>
+      <c r="I35">
+        <v>0.9966356813996881</v>
+      </c>
+      <c r="J35">
+        <v>1.001529233967621</v>
+      </c>
+      <c r="K35">
+        <v>1.001529233967621</v>
+      </c>
+      <c r="L35">
+        <v>1.001529233967621</v>
+      </c>
+      <c r="M35">
+        <v>0.9977061480601379</v>
+      </c>
+      <c r="N35">
+        <v>0.9977061480601379</v>
+      </c>
+      <c r="O35">
+        <v>0.997349325839988</v>
+      </c>
+      <c r="P35">
+        <v>0.9989805100292988</v>
+      </c>
+      <c r="Q35">
+        <v>0.9989805100292988</v>
+      </c>
+      <c r="R35">
+        <v>0.9996176910138792</v>
+      </c>
+      <c r="S35">
+        <v>0.9996176910138792</v>
+      </c>
+      <c r="T35">
+        <v>0.9998640680512842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="D36">
+        <v>0.9999992813743712</v>
+      </c>
+      <c r="E36">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="F36">
+        <v>0.9999992813743712</v>
+      </c>
+      <c r="G36">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="H36">
+        <v>1.000000481555452</v>
+      </c>
+      <c r="I36">
+        <v>0.9999996046812091</v>
+      </c>
+      <c r="J36">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="K36">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="L36">
+        <v>1.00000017884976</v>
+      </c>
+      <c r="M36">
+        <v>0.9999997301120657</v>
+      </c>
+      <c r="N36">
+        <v>0.9999997301120657</v>
+      </c>
+      <c r="O36">
+        <v>0.9999996883017802</v>
+      </c>
+      <c r="P36">
+        <v>0.9999998796912971</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999998796912971</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999544809128</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999544809128</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999840267186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="D37">
+        <v>0.999984760761442</v>
+      </c>
+      <c r="E37">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="F37">
+        <v>0.999984760761442</v>
+      </c>
+      <c r="G37">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="H37">
+        <v>1.000010162130821</v>
+      </c>
+      <c r="I37">
+        <v>0.9999916182417963</v>
+      </c>
+      <c r="J37">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="K37">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="L37">
+        <v>1.000003809022546</v>
+      </c>
+      <c r="M37">
+        <v>0.9999942848919939</v>
+      </c>
+      <c r="N37">
+        <v>0.9999942848919939</v>
+      </c>
+      <c r="O37">
+        <v>0.9999933960085947</v>
+      </c>
+      <c r="P37">
+        <v>0.9999974596021778</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999974596021778</v>
+      </c>
+      <c r="R37">
+        <v>0.9999990469572698</v>
+      </c>
+      <c r="S37">
+        <v>0.9999990469572698</v>
+      </c>
+      <c r="T37">
+        <v>0.9999996613669495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="D38">
+        <v>0.9999463458713667</v>
+      </c>
+      <c r="E38">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="F38">
+        <v>0.9999463458713667</v>
+      </c>
+      <c r="G38">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="H38">
+        <v>1.000035772830209</v>
+      </c>
+      <c r="I38">
+        <v>0.9999704888985416</v>
+      </c>
+      <c r="J38">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="K38">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="L38">
+        <v>1.000013413205217</v>
+      </c>
+      <c r="M38">
+        <v>0.9999798795382918</v>
+      </c>
+      <c r="N38">
+        <v>0.9999798795382918</v>
+      </c>
+      <c r="O38">
+        <v>0.9999767493250418</v>
+      </c>
+      <c r="P38">
+        <v>0.9999910574272669</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999910574272669</v>
+      </c>
+      <c r="R38">
+        <v>0.9999966463717544</v>
+      </c>
+      <c r="S38">
+        <v>0.9999966463717544</v>
+      </c>
+      <c r="T38">
+        <v>0.9999988078692946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000031421086823</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9998742978641076</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000031421086823</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9998742978641076</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000031421086823</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000083797636532</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9999308649736021</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000031421086823</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000031421086823</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000031421086823</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999528594754654</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9999528594754654</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9999455279748443</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999790466792513</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999790466792513</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999921402811442</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999921402811442</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999972039557852</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000143208614368</v>
+      </c>
+      <c r="D40">
+        <v>0.9994271582368792</v>
+      </c>
+      <c r="E40">
+        <v>1.000143208614368</v>
+      </c>
+      <c r="F40">
+        <v>0.9994271582368792</v>
+      </c>
+      <c r="G40">
+        <v>1.000143208614368</v>
+      </c>
+      <c r="H40">
+        <v>1.00038189651378</v>
+      </c>
+      <c r="I40">
+        <v>0.999684937041856</v>
+      </c>
+      <c r="J40">
+        <v>1.000143208614368</v>
+      </c>
+      <c r="K40">
+        <v>1.000143208614368</v>
+      </c>
+      <c r="L40">
+        <v>1.000143208614368</v>
+      </c>
+      <c r="M40">
+        <v>0.9997851834256237</v>
+      </c>
+      <c r="N40">
+        <v>0.9997851834256237</v>
+      </c>
+      <c r="O40">
+        <v>0.9997517679643678</v>
+      </c>
+      <c r="P40">
+        <v>0.9999045251552051</v>
+      </c>
+      <c r="Q40">
+        <v>0.9999045251552051</v>
+      </c>
+      <c r="R40">
+        <v>0.9999641960199959</v>
+      </c>
+      <c r="S40">
+        <v>0.9999641960199959</v>
+      </c>
+      <c r="T40">
+        <v>0.9999872696059366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999159578040847</v>
+      </c>
+      <c r="D41">
+        <v>1.000336169244198</v>
+      </c>
+      <c r="E41">
+        <v>0.9999159578040847</v>
+      </c>
+      <c r="F41">
+        <v>1.000336169244198</v>
+      </c>
+      <c r="G41">
+        <v>0.9999159578040847</v>
+      </c>
+      <c r="H41">
+        <v>0.9997758906120796</v>
+      </c>
+      <c r="I41">
+        <v>1.00018489249166</v>
+      </c>
+      <c r="J41">
+        <v>0.9999159578040847</v>
+      </c>
+      <c r="K41">
+        <v>0.9999159578040847</v>
+      </c>
+      <c r="L41">
+        <v>0.9999159578040847</v>
+      </c>
+      <c r="M41">
+        <v>1.000126063524141</v>
+      </c>
+      <c r="N41">
+        <v>1.000126063524141</v>
+      </c>
+      <c r="O41">
+        <v>1.000145673179981</v>
+      </c>
+      <c r="P41">
+        <v>1.000056028284122</v>
+      </c>
+      <c r="Q41">
+        <v>1.000056028284122</v>
+      </c>
+      <c r="R41">
+        <v>1.000021010664113</v>
+      </c>
+      <c r="S41">
+        <v>1.000021010664113</v>
+      </c>
+      <c r="T41">
+        <v>1.000007470960032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.000556973393867</v>
+      </c>
+      <c r="D42">
+        <v>0.9977721000764368</v>
+      </c>
+      <c r="E42">
+        <v>1.000556973393867</v>
+      </c>
+      <c r="F42">
+        <v>0.9977721000764368</v>
+      </c>
+      <c r="G42">
+        <v>1.000556973393867</v>
+      </c>
+      <c r="H42">
+        <v>1.00148527165899</v>
+      </c>
+      <c r="I42">
+        <v>0.9987746523804901</v>
+      </c>
+      <c r="J42">
+        <v>1.000556973393867</v>
+      </c>
+      <c r="K42">
+        <v>1.000556973393867</v>
+      </c>
+      <c r="L42">
+        <v>1.000556973393867</v>
+      </c>
+      <c r="M42">
+        <v>0.9991645367351519</v>
+      </c>
+      <c r="N42">
+        <v>0.9991645367351519</v>
+      </c>
+      <c r="O42">
+        <v>0.999034575283598</v>
+      </c>
+      <c r="P42">
+        <v>0.999628682288057</v>
+      </c>
+      <c r="Q42">
+        <v>0.999628682288057</v>
+      </c>
+      <c r="R42">
+        <v>0.9998607550645096</v>
+      </c>
+      <c r="S42">
+        <v>0.9998607550645096</v>
+      </c>
+      <c r="T42">
+        <v>0.9999504907162531</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,36 +85,36 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +122,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000043566263338</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="D3">
-        <v>0.9998257305743418</v>
+        <v>0.9999683336938797</v>
       </c>
       <c r="E3">
-        <v>1.000043566263338</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="F3">
-        <v>1.000043566263338</v>
+        <v>0.9999683336938797</v>
       </c>
       <c r="G3">
-        <v>1.000116182718785</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="H3">
-        <v>0.9999041516380389</v>
+        <v>1.000021113560531</v>
       </c>
       <c r="I3">
-        <v>1.000043566263338</v>
+        <v>0.9999825833826359</v>
       </c>
       <c r="J3">
-        <v>0.9998257305743418</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="K3">
-        <v>1.000043566263338</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="L3">
-        <v>1.000043566263338</v>
+        <v>1.000007915867432</v>
       </c>
       <c r="M3">
-        <v>0.9999346484188401</v>
+        <v>0.9999881247806559</v>
       </c>
       <c r="N3">
-        <v>0.9999346484188401</v>
+        <v>0.9999881247806559</v>
       </c>
       <c r="O3">
-        <v>0.9999244828252397</v>
+        <v>0.9999862776479826</v>
       </c>
       <c r="P3">
-        <v>0.9999709543670061</v>
+        <v>0.9999947218095814</v>
       </c>
       <c r="Q3">
-        <v>0.9999709543670061</v>
+        <v>0.9999947218095814</v>
       </c>
       <c r="R3">
-        <v>0.9999891073410891</v>
+        <v>0.9999980203240441</v>
       </c>
       <c r="S3">
-        <v>0.9999891073410891</v>
+        <v>0.9999980203240441</v>
       </c>
       <c r="T3">
-        <v>0.9999961272868633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999992963732239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000084105684225</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="D4">
-        <v>0.999663574283895</v>
+        <v>0.9994271582368792</v>
       </c>
       <c r="E4">
-        <v>1.000084105684225</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="F4">
-        <v>1.000084105684225</v>
+        <v>0.9994271582368792</v>
       </c>
       <c r="G4">
-        <v>1.000224288220767</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="H4">
-        <v>0.9998149660040454</v>
+        <v>1.00038189651378</v>
       </c>
       <c r="I4">
-        <v>1.000084105684225</v>
+        <v>0.999684937041856</v>
       </c>
       <c r="J4">
-        <v>0.999663574283895</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="K4">
-        <v>1.000084105684225</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="L4">
-        <v>1.000084105684225</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="M4">
-        <v>0.9998738399840599</v>
+        <v>0.9997851834256237</v>
       </c>
       <c r="N4">
-        <v>0.9998738399840599</v>
+        <v>0.9997851834256237</v>
       </c>
       <c r="O4">
-        <v>0.9998542153240551</v>
+        <v>0.9997517679643678</v>
       </c>
       <c r="P4">
-        <v>0.9999439285507815</v>
+        <v>0.9999045251552051</v>
       </c>
       <c r="Q4">
-        <v>0.9999439285507815</v>
+        <v>0.9999045251552051</v>
       </c>
       <c r="R4">
-        <v>0.9999789728341423</v>
+        <v>0.9999641960199959</v>
       </c>
       <c r="S4">
-        <v>0.9999789728341423</v>
+        <v>0.9999641960199959</v>
       </c>
       <c r="T4">
-        <v>0.9999925242602302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999872696059366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000161177405645</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="D5">
-        <v>0.9993552797451722</v>
+        <v>0.9981765826801066</v>
       </c>
       <c r="E5">
-        <v>1.000161177405645</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="F5">
-        <v>1.000161177405645</v>
+        <v>0.9981765826801066</v>
       </c>
       <c r="G5">
-        <v>1.000429813370953</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="H5">
-        <v>0.9996454035408682</v>
+        <v>1.001215613645531</v>
       </c>
       <c r="I5">
-        <v>1.000161177405645</v>
+        <v>0.9989971205547606</v>
       </c>
       <c r="J5">
-        <v>0.9993552797451722</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="K5">
-        <v>1.000161177405645</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="L5">
-        <v>1.000161177405645</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="M5">
-        <v>0.9997582285754085</v>
+        <v>0.9993162166930786</v>
       </c>
       <c r="N5">
-        <v>0.9997582285754085</v>
+        <v>0.9993162166930786</v>
       </c>
       <c r="O5">
-        <v>0.9997206202305616</v>
+        <v>0.9992098513136393</v>
       </c>
       <c r="P5">
-        <v>0.999892544852154</v>
+        <v>0.9996960946974026</v>
       </c>
       <c r="Q5">
-        <v>0.999892544852154</v>
+        <v>0.9996960946974026</v>
       </c>
       <c r="R5">
-        <v>0.9999597029905266</v>
+        <v>0.9998860336995646</v>
       </c>
       <c r="S5">
-        <v>0.9999597029905266</v>
+        <v>0.9998860336995646</v>
       </c>
       <c r="T5">
-        <v>0.999985671478988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9999594781664248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000236393446219</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="D6">
-        <v>0.9990544044105775</v>
+        <v>0.9938830621526554</v>
       </c>
       <c r="E6">
-        <v>1.000236393446219</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="F6">
-        <v>1.000236393446219</v>
+        <v>0.9938830621526554</v>
       </c>
       <c r="G6">
-        <v>1.000630413010154</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="H6">
-        <v>0.9994799234400336</v>
+        <v>1.0040779628525</v>
       </c>
       <c r="I6">
-        <v>1.000236393446219</v>
+        <v>0.9966356813996881</v>
       </c>
       <c r="J6">
-        <v>0.9990544044105775</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="K6">
-        <v>1.000236393446219</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="L6">
-        <v>1.000236393446219</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="M6">
-        <v>0.9996453989283984</v>
+        <v>0.9977061480601379</v>
       </c>
       <c r="N6">
-        <v>0.9996453989283984</v>
+        <v>0.9977061480601379</v>
       </c>
       <c r="O6">
-        <v>0.9995902404322768</v>
+        <v>0.997349325839988</v>
       </c>
       <c r="P6">
-        <v>0.9998423971010054</v>
+        <v>0.9989805100292988</v>
       </c>
       <c r="Q6">
-        <v>0.9998423971010054</v>
+        <v>0.9989805100292988</v>
       </c>
       <c r="R6">
-        <v>0.9999408961873089</v>
+        <v>0.9996176910138792</v>
       </c>
       <c r="S6">
-        <v>0.9999408961873089</v>
+        <v>0.9996176910138792</v>
       </c>
       <c r="T6">
-        <v>0.9999789868665706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9998640680512842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000003105044205</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="D7">
-        <v>0.9999875767389075</v>
+        <v>0.9998097266438388</v>
       </c>
       <c r="E7">
-        <v>1.000003105044205</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="F7">
-        <v>1.000003105044205</v>
+        <v>0.9998097266438388</v>
       </c>
       <c r="G7">
-        <v>1.00000828475663</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="H7">
-        <v>0.999993167120613</v>
+        <v>1.000126852222639</v>
       </c>
       <c r="I7">
-        <v>1.000003105044205</v>
+        <v>0.999895349546544</v>
       </c>
       <c r="J7">
-        <v>0.9999875767389075</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="K7">
-        <v>1.000003105044205</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="L7">
-        <v>1.000003105044205</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="M7">
-        <v>0.9999953408915564</v>
+        <v>0.9999286468385222</v>
       </c>
       <c r="N7">
-        <v>0.9999953408915564</v>
+        <v>0.9999286468385222</v>
       </c>
       <c r="O7">
-        <v>0.999994616301242</v>
+        <v>0.9999175477411962</v>
       </c>
       <c r="P7">
-        <v>0.9999979289424393</v>
+        <v>0.9999682869034167</v>
       </c>
       <c r="Q7">
-        <v>0.9999979289424393</v>
+        <v>0.9999682869034167</v>
       </c>
       <c r="R7">
-        <v>0.9999992229678808</v>
+        <v>0.9999881069358639</v>
       </c>
       <c r="S7">
-        <v>0.9999992229678808</v>
+        <v>0.9999881069358639</v>
       </c>
       <c r="T7">
-        <v>0.9999997239581276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999957715854397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000007915867432</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="D8">
-        <v>0.9999683336938795</v>
+        <v>0.999984760761442</v>
       </c>
       <c r="E8">
-        <v>1.000007915867432</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="F8">
-        <v>1.000007915867432</v>
+        <v>0.999984760761442</v>
       </c>
       <c r="G8">
-        <v>1.000021113560531</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="H8">
-        <v>0.999982583382636</v>
+        <v>1.000010162130821</v>
       </c>
       <c r="I8">
-        <v>1.000007915867432</v>
+        <v>0.9999916182417963</v>
       </c>
       <c r="J8">
-        <v>0.9999683336938795</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="K8">
-        <v>1.000007915867432</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="L8">
-        <v>1.000007915867432</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="M8">
-        <v>0.9999881247806559</v>
+        <v>0.9999942848919939</v>
       </c>
       <c r="N8">
-        <v>0.9999881247806559</v>
+        <v>0.9999942848919939</v>
       </c>
       <c r="O8">
-        <v>0.9999862776479826</v>
+        <v>0.9999933960085947</v>
       </c>
       <c r="P8">
-        <v>0.9999947218095814</v>
+        <v>0.9999974596021778</v>
       </c>
       <c r="Q8">
-        <v>0.9999947218095814</v>
+        <v>0.9999974596021778</v>
       </c>
       <c r="R8">
-        <v>0.9999980203240441</v>
+        <v>0.9999990469572698</v>
       </c>
       <c r="S8">
-        <v>0.9999980203240441</v>
+        <v>0.9999990469572698</v>
       </c>
       <c r="T8">
-        <v>0.9999992963732239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999996613669495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00001108369779</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="D9">
-        <v>0.9999556618337458</v>
+        <v>0.999663574283895</v>
       </c>
       <c r="E9">
-        <v>1.00001108369779</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="F9">
-        <v>1.00001108369779</v>
+        <v>0.999663574283895</v>
       </c>
       <c r="G9">
-        <v>1.000029561020586</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="H9">
-        <v>0.9999756139985984</v>
+        <v>1.000224288220767</v>
       </c>
       <c r="I9">
-        <v>1.00001108369779</v>
+        <v>0.9998149660040454</v>
       </c>
       <c r="J9">
-        <v>0.9999556618337458</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="K9">
-        <v>1.00001108369779</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="L9">
-        <v>1.00001108369779</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="M9">
-        <v>0.9999833727657677</v>
+        <v>0.9998738399840599</v>
       </c>
       <c r="N9">
-        <v>0.9999833727657677</v>
+        <v>0.9998738399840599</v>
       </c>
       <c r="O9">
-        <v>0.9999807865100445</v>
+        <v>0.9998542153240551</v>
       </c>
       <c r="P9">
-        <v>0.9999926097431082</v>
+        <v>0.9999439285507815</v>
       </c>
       <c r="Q9">
-        <v>0.9999926097431082</v>
+        <v>0.9999439285507815</v>
       </c>
       <c r="R9">
-        <v>0.9999972282317786</v>
+        <v>0.9999789728341423</v>
       </c>
       <c r="S9">
-        <v>0.9999972282317786</v>
+        <v>0.9999789728341423</v>
       </c>
       <c r="T9">
-        <v>0.9999990146577166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999925242602302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000023900145463</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="D10">
-        <v>0.9999043960420384</v>
+        <v>0.993792020298969</v>
       </c>
       <c r="E10">
-        <v>1.000023900145463</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="F10">
-        <v>1.000023900145463</v>
+        <v>0.993792020298969</v>
       </c>
       <c r="G10">
-        <v>1.000063739282692</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="H10">
-        <v>0.9999474174836135</v>
+        <v>1.004138656667259</v>
       </c>
       <c r="I10">
-        <v>1.000023900145463</v>
+        <v>0.9965856092599107</v>
       </c>
       <c r="J10">
-        <v>0.9999043960420384</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="K10">
-        <v>1.000023900145463</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="L10">
-        <v>1.000023900145463</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="M10">
-        <v>0.9999641480937508</v>
+        <v>0.9976720067635518</v>
       </c>
       <c r="N10">
-        <v>0.9999641480937508</v>
+        <v>0.9976720067635518</v>
       </c>
       <c r="O10">
-        <v>0.999958571223705</v>
+        <v>0.9973098742623381</v>
       </c>
       <c r="P10">
-        <v>0.9999840654443215</v>
+        <v>0.9989653355850795</v>
       </c>
       <c r="Q10">
-        <v>0.9999840654443215</v>
+        <v>0.9989653355850795</v>
       </c>
       <c r="R10">
-        <v>0.9999940241196069</v>
+        <v>0.9996119999958433</v>
       </c>
       <c r="S10">
-        <v>0.9999940241196069</v>
+        <v>0.9996119999958433</v>
       </c>
       <c r="T10">
-        <v>0.9999978755407888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9998620443184238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000039645164463</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="D11">
-        <v>0.9998414139570424</v>
+        <v>0.9994599858584754</v>
       </c>
       <c r="E11">
-        <v>1.000039645164463</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="F11">
-        <v>1.000039645164463</v>
+        <v>0.9994599858584754</v>
       </c>
       <c r="G11">
-        <v>1.000105726445632</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="H11">
-        <v>0.9999127754669546</v>
+        <v>1.000360012468757</v>
       </c>
       <c r="I11">
-        <v>1.000039645164463</v>
+        <v>0.999702991281662</v>
       </c>
       <c r="J11">
-        <v>0.9998414139570424</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="K11">
-        <v>1.000039645164463</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="L11">
-        <v>1.000039645164463</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="M11">
-        <v>0.9999405295607526</v>
+        <v>0.9997974939532585</v>
       </c>
       <c r="N11">
-        <v>0.9999405295607526</v>
+        <v>0.9997974939532585</v>
       </c>
       <c r="O11">
-        <v>0.9999312781961534</v>
+        <v>0.9997659930627263</v>
       </c>
       <c r="P11">
-        <v>0.9999735680953227</v>
+        <v>0.9999099966515196</v>
       </c>
       <c r="Q11">
-        <v>0.9999735680953227</v>
+        <v>0.9999099966515196</v>
       </c>
       <c r="R11">
-        <v>0.9999900873626077</v>
+        <v>0.99996624800065</v>
       </c>
       <c r="S11">
-        <v>0.9999900873626077</v>
+        <v>0.99996624800065</v>
       </c>
       <c r="T11">
-        <v>0.9999964752271696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999879992921699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9996486092097823</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="D12">
-        <v>1.001405579072191</v>
+        <v>0.9981370643368338</v>
       </c>
       <c r="E12">
-        <v>0.9996486092097823</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="F12">
-        <v>0.9996486092097823</v>
+        <v>0.9981370643368338</v>
       </c>
       <c r="G12">
-        <v>0.9990629566350978</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="H12">
-        <v>1.000773066766072</v>
+        <v>1.001241957852627</v>
       </c>
       <c r="I12">
-        <v>0.9996486092097823</v>
+        <v>0.9989753864631655</v>
       </c>
       <c r="J12">
-        <v>1.001405579072191</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="K12">
-        <v>0.9996486092097823</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="L12">
-        <v>0.9996486092097823</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="M12">
-        <v>1.000527094140987</v>
+        <v>0.9993013965052591</v>
       </c>
       <c r="N12">
-        <v>1.000527094140987</v>
+        <v>0.9993013965052591</v>
       </c>
       <c r="O12">
-        <v>1.000609085016015</v>
+        <v>0.9991927264912279</v>
       </c>
       <c r="P12">
-        <v>1.000234265830585</v>
+        <v>0.9996895072280675</v>
       </c>
       <c r="Q12">
-        <v>1.000234265830585</v>
+        <v>0.9996895072280675</v>
       </c>
       <c r="R12">
-        <v>1.000087851675384</v>
+        <v>0.9998835625894716</v>
       </c>
       <c r="S12">
-        <v>1.000087851675384</v>
+        <v>0.9998835625894716</v>
       </c>
       <c r="T12">
-        <v>1.000031238350451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9999585991122798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999909272165817</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="D13">
-        <v>1.000362898628533</v>
+        <v>1.001220949328513</v>
       </c>
       <c r="E13">
-        <v>0.999909272165817</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="F13">
-        <v>0.999909272165817</v>
+        <v>1.001220949328513</v>
       </c>
       <c r="G13">
-        <v>0.9997580670945519</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="H13">
-        <v>1.000199594004473</v>
+        <v>0.999186034531594</v>
       </c>
       <c r="I13">
-        <v>0.999909272165817</v>
+        <v>1.000671524371926</v>
       </c>
       <c r="J13">
-        <v>1.000362898628533</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="K13">
-        <v>0.999909272165817</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="L13">
-        <v>0.999909272165817</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="M13">
-        <v>1.000136085397175</v>
+        <v>1.000457854818426</v>
       </c>
       <c r="N13">
-        <v>1.000136085397175</v>
+        <v>1.000457854818426</v>
       </c>
       <c r="O13">
-        <v>1.000157254932941</v>
+        <v>1.000529078002926</v>
       </c>
       <c r="P13">
-        <v>1.000060480986723</v>
+        <v>1.00020348998173</v>
       </c>
       <c r="Q13">
-        <v>1.000060480986723</v>
+        <v>1.00020348998173</v>
       </c>
       <c r="R13">
-        <v>1.000022678781496</v>
+        <v>1.000076307563383</v>
       </c>
       <c r="S13">
-        <v>1.000022678781496</v>
+        <v>1.000076307563383</v>
       </c>
       <c r="T13">
-        <v>1.000008062704168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000027131526175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9996486382132348</v>
+        <v>1.0026814</v>
       </c>
       <c r="D14">
-        <v>1.001405501410092</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="E14">
-        <v>0.9996486382132348</v>
+        <v>1.0026814</v>
       </c>
       <c r="F14">
-        <v>0.9996486382132348</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="G14">
-        <v>0.9990629917679428</v>
+        <v>1.0026814</v>
       </c>
       <c r="H14">
-        <v>1.000773025470039</v>
+        <v>1.0071504</v>
       </c>
       <c r="I14">
-        <v>0.9996486382132348</v>
+        <v>0.9941009200000001</v>
       </c>
       <c r="J14">
-        <v>1.001405501410092</v>
+        <v>1.0026814</v>
       </c>
       <c r="K14">
-        <v>0.9996486382132348</v>
+        <v>1.0026814</v>
       </c>
       <c r="L14">
-        <v>0.9996486382132348</v>
+        <v>1.0026814</v>
       </c>
       <c r="M14">
-        <v>1.000527069811664</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="N14">
-        <v>1.000527069811664</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="O14">
-        <v>1.000609055031122</v>
+        <v>0.9953522433333332</v>
       </c>
       <c r="P14">
-        <v>1.000234259278854</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="Q14">
-        <v>1.000234259278854</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="R14">
-        <v>1.000087854012449</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="S14">
-        <v>1.000087854012449</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="T14">
-        <v>1.000031238881296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.999761655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999092718109113</v>
+        <v>1.0010056</v>
       </c>
       <c r="D15">
-        <v>1.000362877124751</v>
+        <v>0.99597777</v>
       </c>
       <c r="E15">
-        <v>0.9999092718109113</v>
+        <v>1.0010056</v>
       </c>
       <c r="F15">
-        <v>0.9999092718109113</v>
+        <v>0.99597777</v>
       </c>
       <c r="G15">
-        <v>0.9997580801805364</v>
+        <v>1.0010056</v>
       </c>
       <c r="H15">
-        <v>1.000199582659947</v>
+        <v>1.0026815</v>
       </c>
       <c r="I15">
-        <v>0.9999092718109113</v>
+        <v>0.99778778</v>
       </c>
       <c r="J15">
-        <v>1.000362877124751</v>
+        <v>1.0010056</v>
       </c>
       <c r="K15">
-        <v>0.9999092718109113</v>
+        <v>1.0010056</v>
       </c>
       <c r="L15">
-        <v>0.9999092718109113</v>
+        <v>1.0010056</v>
       </c>
       <c r="M15">
-        <v>1.000136074467831</v>
+        <v>0.9984916850000001</v>
       </c>
       <c r="N15">
-        <v>1.000136074467831</v>
+        <v>0.9984916850000001</v>
       </c>
       <c r="O15">
-        <v>1.000157243865203</v>
+        <v>0.99825705</v>
       </c>
       <c r="P15">
-        <v>1.000060473582191</v>
+        <v>0.9993296566666667</v>
       </c>
       <c r="Q15">
-        <v>1.000060473582191</v>
+        <v>0.9993296566666667</v>
       </c>
       <c r="R15">
-        <v>1.000022673139371</v>
+        <v>0.9997486425000001</v>
       </c>
       <c r="S15">
-        <v>1.000022673139371</v>
+        <v>0.9997486425000001</v>
       </c>
       <c r="T15">
-        <v>1.000008059232995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9999106416666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00000017884976</v>
+        <v>1.0010055</v>
       </c>
       <c r="D16">
-        <v>0.9999992813743712</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E16">
-        <v>1.00000017884976</v>
+        <v>1.0010055</v>
       </c>
       <c r="F16">
-        <v>1.00000017884976</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G16">
-        <v>1.000000481555452</v>
+        <v>1.0010055</v>
       </c>
       <c r="H16">
-        <v>0.9999996046812091</v>
+        <v>1.0026814</v>
       </c>
       <c r="I16">
-        <v>1.00000017884976</v>
+        <v>0.99778785</v>
       </c>
       <c r="J16">
-        <v>0.9999992813743712</v>
+        <v>1.0010055</v>
       </c>
       <c r="K16">
-        <v>1.00000017884976</v>
+        <v>1.0010055</v>
       </c>
       <c r="L16">
-        <v>1.00000017884976</v>
+        <v>1.0010055</v>
       </c>
       <c r="M16">
-        <v>0.9999997301120657</v>
+        <v>0.9984917</v>
       </c>
       <c r="N16">
-        <v>0.9999997301120657</v>
+        <v>0.9984917</v>
       </c>
       <c r="O16">
-        <v>0.9999996883017802</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P16">
-        <v>0.9999998796912971</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q16">
-        <v>0.9999998796912971</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R16">
-        <v>0.9999999544809128</v>
+        <v>0.9997486</v>
       </c>
       <c r="S16">
-        <v>0.9999999544809128</v>
+        <v>0.9997486</v>
       </c>
       <c r="T16">
-        <v>0.9999999840267186</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003809022546</v>
+        <v>0.99922493</v>
       </c>
       <c r="D17">
-        <v>0.999984760761442</v>
+        <v>1.0031003</v>
       </c>
       <c r="E17">
-        <v>1.000003809022546</v>
+        <v>0.99922493</v>
       </c>
       <c r="F17">
-        <v>1.000003809022546</v>
+        <v>1.0031003</v>
       </c>
       <c r="G17">
-        <v>1.000010162130821</v>
+        <v>0.99922493</v>
       </c>
       <c r="H17">
-        <v>0.9999916182417965</v>
+        <v>0.99793314</v>
       </c>
       <c r="I17">
-        <v>1.000003809022546</v>
+        <v>1.0017052</v>
       </c>
       <c r="J17">
-        <v>0.999984760761442</v>
+        <v>0.99922493</v>
       </c>
       <c r="K17">
-        <v>1.000003809022546</v>
+        <v>0.99922493</v>
       </c>
       <c r="L17">
-        <v>1.000003809022546</v>
+        <v>0.99922493</v>
       </c>
       <c r="M17">
-        <v>0.9999942848919939</v>
+        <v>1.001162615</v>
       </c>
       <c r="N17">
-        <v>0.9999942848919939</v>
+        <v>1.001162615</v>
       </c>
       <c r="O17">
-        <v>0.9999933960085947</v>
+        <v>1.001343476666667</v>
       </c>
       <c r="P17">
-        <v>0.9999974596021778</v>
+        <v>1.00051672</v>
       </c>
       <c r="Q17">
-        <v>0.9999974596021778</v>
+        <v>1.00051672</v>
       </c>
       <c r="R17">
-        <v>0.9999990469572698</v>
+        <v>1.0001937725</v>
       </c>
       <c r="S17">
-        <v>0.9999990469572698</v>
+        <v>1.0001937725</v>
       </c>
       <c r="T17">
-        <v>0.9999996613669495</v>
+        <v>1.000068905</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013413205217</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="D18">
-        <v>0.9999463458713667</v>
+        <v>0.9959779012328766</v>
       </c>
       <c r="E18">
-        <v>1.000013413205217</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="F18">
-        <v>1.000013413205217</v>
+        <v>0.9959779012328766</v>
       </c>
       <c r="G18">
-        <v>1.000035772830209</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="H18">
-        <v>0.9999704888985416</v>
+        <v>1.002681415068494</v>
       </c>
       <c r="I18">
-        <v>1.000013413205217</v>
+        <v>0.9977878465753426</v>
       </c>
       <c r="J18">
-        <v>0.9999463458713667</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="K18">
-        <v>1.000013413205217</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="L18">
-        <v>1.000013413205217</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="M18">
-        <v>0.9999798795382918</v>
+        <v>0.9984917081506852</v>
       </c>
       <c r="N18">
-        <v>0.9999798795382918</v>
+        <v>0.9984917081506852</v>
       </c>
       <c r="O18">
-        <v>0.9999767493250418</v>
+        <v>0.998257087625571</v>
       </c>
       <c r="P18">
-        <v>0.9999910574272669</v>
+        <v>0.9993296437899547</v>
       </c>
       <c r="Q18">
-        <v>0.9999910574272669</v>
+        <v>0.9993296437899547</v>
       </c>
       <c r="R18">
-        <v>0.9999966463717544</v>
+        <v>0.9997486116095895</v>
       </c>
       <c r="S18">
-        <v>0.9999966463717544</v>
+        <v>0.9997486116095895</v>
       </c>
       <c r="T18">
-        <v>0.9999988078692946</v>
+        <v>0.9999106180136991</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000031421086823</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="D19">
-        <v>0.9998742978641076</v>
+        <v>0.998182957368421</v>
       </c>
       <c r="E19">
-        <v>1.000031421086823</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="F19">
-        <v>1.000031421086823</v>
+        <v>0.998182957368421</v>
       </c>
       <c r="G19">
-        <v>1.000083797636532</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="H19">
-        <v>0.9999308649736021</v>
+        <v>1.001211360526316</v>
       </c>
       <c r="I19">
-        <v>1.000031421086823</v>
+        <v>0.999000627368421</v>
       </c>
       <c r="J19">
-        <v>0.9998742978641076</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="K19">
-        <v>1.000031421086823</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="L19">
-        <v>1.000031421086823</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="M19">
-        <v>0.9999528594754654</v>
+        <v>0.9993186078947367</v>
       </c>
       <c r="N19">
-        <v>0.9999528594754654</v>
+        <v>0.9993186078947367</v>
       </c>
       <c r="O19">
-        <v>0.9999455279748443</v>
+        <v>0.9992126143859648</v>
       </c>
       <c r="P19">
-        <v>0.9999790466792513</v>
+        <v>0.9996971580701753</v>
       </c>
       <c r="Q19">
-        <v>0.9999790466792513</v>
+        <v>0.9996971580701753</v>
       </c>
       <c r="R19">
-        <v>0.9999921402811442</v>
+        <v>0.9998864331578946</v>
       </c>
       <c r="S19">
-        <v>0.9999921402811442</v>
+        <v>0.9998864331578946</v>
       </c>
       <c r="T19">
-        <v>0.9999972039557852</v>
+        <v>0.9999596200877191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="D20">
+        <v>0.9981829994736842</v>
+      </c>
+      <c r="E20">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="F20">
+        <v>0.9981829994736842</v>
+      </c>
+      <c r="G20">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="H20">
+        <v>1.001211336842105</v>
+      </c>
+      <c r="I20">
+        <v>0.9990006542105263</v>
+      </c>
+      <c r="J20">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="K20">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="L20">
+        <v>1.000454248421053</v>
+      </c>
+      <c r="M20">
+        <v>0.9993186239473685</v>
+      </c>
+      <c r="N20">
+        <v>0.9993186239473685</v>
+      </c>
+      <c r="O20">
+        <v>0.9992126340350879</v>
+      </c>
+      <c r="P20">
+        <v>0.9996971654385965</v>
+      </c>
+      <c r="Q20">
+        <v>0.9996971654385965</v>
+      </c>
+      <c r="R20">
+        <v>0.9998864361842106</v>
+      </c>
+      <c r="S20">
+        <v>0.9998864361842106</v>
+      </c>
+      <c r="T20">
+        <v>0.9999596226315791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="D21">
+        <v>1.001405501410092</v>
+      </c>
+      <c r="E21">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="F21">
+        <v>1.001405501410092</v>
+      </c>
+      <c r="G21">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="H21">
+        <v>0.9990629917679428</v>
+      </c>
+      <c r="I21">
+        <v>1.000773025470039</v>
+      </c>
+      <c r="J21">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="K21">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="L21">
+        <v>0.9996486382132348</v>
+      </c>
+      <c r="M21">
+        <v>1.000527069811664</v>
+      </c>
+      <c r="N21">
+        <v>1.000527069811664</v>
+      </c>
+      <c r="O21">
+        <v>1.000609055031122</v>
+      </c>
+      <c r="P21">
+        <v>1.000234259278854</v>
+      </c>
+      <c r="Q21">
+        <v>1.000234259278854</v>
+      </c>
+      <c r="R21">
+        <v>1.000087854012449</v>
+      </c>
+      <c r="S21">
+        <v>1.000087854012449</v>
+      </c>
+      <c r="T21">
+        <v>1.000031238881296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="D22">
+        <v>1.000362877124751</v>
+      </c>
+      <c r="E22">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="F22">
+        <v>1.000362877124751</v>
+      </c>
+      <c r="G22">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="H22">
+        <v>0.9997580801805364</v>
+      </c>
+      <c r="I22">
+        <v>1.000199582659947</v>
+      </c>
+      <c r="J22">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="K22">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="L22">
+        <v>0.999909271810911</v>
+      </c>
+      <c r="M22">
+        <v>1.000136074467831</v>
+      </c>
+      <c r="N22">
+        <v>1.000136074467831</v>
+      </c>
+      <c r="O22">
+        <v>1.000157243865203</v>
+      </c>
+      <c r="P22">
+        <v>1.000060473582191</v>
+      </c>
+      <c r="Q22">
+        <v>1.000060473582191</v>
+      </c>
+      <c r="R22">
+        <v>1.000022673139371</v>
+      </c>
+      <c r="S22">
+        <v>1.000022673139371</v>
+      </c>
+      <c r="T22">
+        <v>1.000008059232995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="D23">
+        <v>1.001405579072191</v>
+      </c>
+      <c r="E23">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="F23">
+        <v>1.001405579072191</v>
+      </c>
+      <c r="G23">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="H23">
+        <v>0.9990629566350978</v>
+      </c>
+      <c r="I23">
+        <v>1.000773066766072</v>
+      </c>
+      <c r="J23">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="K23">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="L23">
+        <v>0.9996486092097823</v>
+      </c>
+      <c r="M23">
+        <v>1.000527094140987</v>
+      </c>
+      <c r="N23">
+        <v>1.000527094140987</v>
+      </c>
+      <c r="O23">
+        <v>1.000609085016015</v>
+      </c>
+      <c r="P23">
+        <v>1.000234265830585</v>
+      </c>
+      <c r="Q23">
+        <v>1.000234265830585</v>
+      </c>
+      <c r="R23">
+        <v>1.000087851675384</v>
+      </c>
+      <c r="S23">
+        <v>1.000087851675384</v>
+      </c>
+      <c r="T23">
+        <v>1.000031238350451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="D24">
+        <v>1.000362898628533</v>
+      </c>
+      <c r="E24">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="F24">
+        <v>1.000362898628533</v>
+      </c>
+      <c r="G24">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="H24">
+        <v>0.9997580670945519</v>
+      </c>
+      <c r="I24">
+        <v>1.000199594004473</v>
+      </c>
+      <c r="J24">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="K24">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="L24">
+        <v>0.999909272165817</v>
+      </c>
+      <c r="M24">
+        <v>1.000136085397175</v>
+      </c>
+      <c r="N24">
+        <v>1.000136085397175</v>
+      </c>
+      <c r="O24">
+        <v>1.000157254932941</v>
+      </c>
+      <c r="P24">
+        <v>1.000060480986723</v>
+      </c>
+      <c r="Q24">
+        <v>1.000060480986723</v>
+      </c>
+      <c r="R24">
+        <v>1.000022678781496</v>
+      </c>
+      <c r="S24">
+        <v>1.000022678781496</v>
+      </c>
+      <c r="T24">
+        <v>1.000008062704168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9996485850387609</v>
+      </c>
+      <c r="D25">
+        <v>1.001405615652948</v>
+      </c>
+      <c r="E25">
+        <v>0.9996485850387609</v>
+      </c>
+      <c r="F25">
+        <v>1.001405615652948</v>
+      </c>
+      <c r="G25">
+        <v>0.9996485850387609</v>
+      </c>
+      <c r="H25">
+        <v>0.9990629339916287</v>
+      </c>
+      <c r="I25">
+        <v>1.000773090978309</v>
+      </c>
+      <c r="J25">
+        <v>0.9996485850387609</v>
+      </c>
+      <c r="K25">
+        <v>0.9996485850387609</v>
+      </c>
+      <c r="L25">
+        <v>0.9996485850387609</v>
+      </c>
+      <c r="M25">
+        <v>1.000527100345854</v>
+      </c>
+      <c r="N25">
+        <v>1.000527100345854</v>
+      </c>
+      <c r="O25">
+        <v>1.000609097223339</v>
+      </c>
+      <c r="P25">
+        <v>1.000234261910157</v>
+      </c>
+      <c r="Q25">
+        <v>1.000234261910157</v>
+      </c>
+      <c r="R25">
+        <v>1.000087842692308</v>
+      </c>
+      <c r="S25">
+        <v>1.000087842692308</v>
+      </c>
+      <c r="T25">
+        <v>1.000031232623195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.999909269033909</v>
+      </c>
+      <c r="D26">
+        <v>1.000362914415777</v>
+      </c>
+      <c r="E26">
+        <v>0.999909269033909</v>
+      </c>
+      <c r="F26">
+        <v>1.000362914415777</v>
+      </c>
+      <c r="G26">
+        <v>0.999909269033909</v>
+      </c>
+      <c r="H26">
+        <v>0.9997580579258739</v>
+      </c>
+      <c r="I26">
+        <v>1.000199600506452</v>
+      </c>
+      <c r="J26">
+        <v>0.999909269033909</v>
+      </c>
+      <c r="K26">
+        <v>0.999909269033909</v>
+      </c>
+      <c r="L26">
+        <v>0.999909269033909</v>
+      </c>
+      <c r="M26">
+        <v>1.000136091724843</v>
+      </c>
+      <c r="N26">
+        <v>1.000136091724843</v>
+      </c>
+      <c r="O26">
+        <v>1.000157261318713</v>
+      </c>
+      <c r="P26">
+        <v>1.000060484161198</v>
+      </c>
+      <c r="Q26">
+        <v>1.000060484161198</v>
+      </c>
+      <c r="R26">
+        <v>1.000022680379376</v>
+      </c>
+      <c r="S26">
+        <v>1.000022680379376</v>
+      </c>
+      <c r="T26">
+        <v>1.000008063324972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="D27">
+        <v>0.9993607479918387</v>
+      </c>
+      <c r="E27">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="F27">
+        <v>0.9993607479918387</v>
+      </c>
+      <c r="G27">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="H27">
+        <v>1.000426157681914</v>
+      </c>
+      <c r="I27">
+        <v>0.9996484052109185</v>
+      </c>
+      <c r="J27">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="K27">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="L27">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="M27">
+        <v>0.9997602761118549</v>
+      </c>
+      <c r="N27">
+        <v>0.9997602761118549</v>
+      </c>
+      <c r="O27">
+        <v>0.9997229858115428</v>
+      </c>
+      <c r="P27">
+        <v>0.9998934521518604</v>
+      </c>
+      <c r="Q27">
+        <v>0.9998934521518604</v>
+      </c>
+      <c r="R27">
+        <v>0.9999600401718631</v>
+      </c>
+      <c r="S27">
+        <v>0.9999600401718631</v>
+      </c>
+      <c r="T27">
+        <v>0.9999857872633808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="D28">
+        <v>1.000110884809422</v>
+      </c>
+      <c r="E28">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="F28">
+        <v>1.000110884809422</v>
+      </c>
+      <c r="G28">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="H28">
+        <v>0.9999260776537988</v>
+      </c>
+      <c r="I28">
+        <v>1.000060987697089</v>
+      </c>
+      <c r="J28">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="K28">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="L28">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="M28">
+        <v>1.000041579662353</v>
+      </c>
+      <c r="N28">
+        <v>1.000041579662353</v>
+      </c>
+      <c r="O28">
+        <v>1.000048049007265</v>
+      </c>
+      <c r="P28">
+        <v>1.000018477946664</v>
+      </c>
+      <c r="Q28">
+        <v>1.000018477946664</v>
+      </c>
+      <c r="R28">
+        <v>1.000006927088819</v>
+      </c>
+      <c r="S28">
+        <v>1.000006927088819</v>
+      </c>
+      <c r="T28">
+        <v>1.000002462284361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9994843810240057</v>
+      </c>
+      <c r="D29">
+        <v>1.002062497519687</v>
+      </c>
+      <c r="E29">
+        <v>0.9994843810240057</v>
+      </c>
+      <c r="F29">
+        <v>1.002062497519687</v>
+      </c>
+      <c r="G29">
+        <v>0.9994843810240057</v>
+      </c>
+      <c r="H29">
+        <v>0.9986249934890727</v>
+      </c>
+      <c r="I29">
+        <v>1.001134376399488</v>
+      </c>
+      <c r="J29">
+        <v>0.9994843810240057</v>
+      </c>
+      <c r="K29">
+        <v>0.9994843810240057</v>
+      </c>
+      <c r="L29">
+        <v>0.9994843810240057</v>
+      </c>
+      <c r="M29">
+        <v>1.000773439271846</v>
+      </c>
+      <c r="N29">
+        <v>1.000773439271846</v>
+      </c>
+      <c r="O29">
+        <v>1.000893751647727</v>
+      </c>
+      <c r="P29">
+        <v>1.000343753189233</v>
+      </c>
+      <c r="Q29">
+        <v>1.000343753189233</v>
+      </c>
+      <c r="R29">
+        <v>1.000128910147926</v>
+      </c>
+      <c r="S29">
+        <v>1.000128910147926</v>
+      </c>
+      <c r="T29">
+        <v>1.000045835080044</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000143208614368</v>
+        <v>1.000382342858735</v>
       </c>
       <c r="D4">
-        <v>0.9994271582368792</v>
+        <v>0.9984706134108789</v>
       </c>
       <c r="E4">
-        <v>1.000143208614368</v>
+        <v>1.000382342858735</v>
       </c>
       <c r="F4">
-        <v>0.9994271582368792</v>
+        <v>0.9984706134108789</v>
       </c>
       <c r="G4">
-        <v>1.000143208614368</v>
+        <v>1.000382342858735</v>
       </c>
       <c r="H4">
-        <v>1.00038189651378</v>
+        <v>1.001019592569351</v>
       </c>
       <c r="I4">
-        <v>0.999684937041856</v>
+        <v>0.9991588375085427</v>
       </c>
       <c r="J4">
-        <v>1.000143208614368</v>
+        <v>1.000382342858735</v>
       </c>
       <c r="K4">
-        <v>1.000143208614368</v>
+        <v>1.000382342858735</v>
       </c>
       <c r="L4">
-        <v>1.000143208614368</v>
+        <v>1.000382342858735</v>
       </c>
       <c r="M4">
-        <v>0.9997851834256237</v>
+        <v>0.9994264781348069</v>
       </c>
       <c r="N4">
-        <v>0.9997851834256237</v>
+        <v>0.9994264781348069</v>
       </c>
       <c r="O4">
-        <v>0.9997517679643678</v>
+        <v>0.9993372645927189</v>
       </c>
       <c r="P4">
-        <v>0.9999045251552051</v>
+        <v>0.9997450997094495</v>
       </c>
       <c r="Q4">
-        <v>0.9999045251552051</v>
+        <v>0.9997450997094495</v>
       </c>
       <c r="R4">
-        <v>0.9999641960199959</v>
+        <v>0.9999044104967708</v>
       </c>
       <c r="S4">
-        <v>0.9999641960199959</v>
+        <v>0.9999044104967708</v>
       </c>
       <c r="T4">
-        <v>0.9999872696059366</v>
+        <v>0.9999660120108297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000455850706051</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="D5">
-        <v>0.9981765826801066</v>
+        <v>0.9989457240556792</v>
       </c>
       <c r="E5">
-        <v>1.000455850706051</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="F5">
-        <v>0.9981765826801066</v>
+        <v>0.9989457240556792</v>
       </c>
       <c r="G5">
-        <v>1.000455850706051</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="H5">
-        <v>1.001215613645531</v>
+        <v>1.000702853908073</v>
       </c>
       <c r="I5">
-        <v>0.9989971205547606</v>
+        <v>0.9994201533106584</v>
       </c>
       <c r="J5">
-        <v>1.000455850706051</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="K5">
-        <v>1.000455850706051</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="L5">
-        <v>1.000455850706051</v>
+        <v>1.000263566737182</v>
       </c>
       <c r="M5">
-        <v>0.9993162166930786</v>
+        <v>0.9996046453964307</v>
       </c>
       <c r="N5">
-        <v>0.9993162166930786</v>
+        <v>0.9996046453964307</v>
       </c>
       <c r="O5">
-        <v>0.9992098513136393</v>
+        <v>0.9995431480345065</v>
       </c>
       <c r="P5">
-        <v>0.9996960946974026</v>
+        <v>0.9998242858433478</v>
       </c>
       <c r="Q5">
-        <v>0.9996960946974026</v>
+        <v>0.9998242858433478</v>
       </c>
       <c r="R5">
-        <v>0.9998860336995646</v>
+        <v>0.9999341060668063</v>
       </c>
       <c r="S5">
-        <v>0.9998860336995646</v>
+        <v>0.9999341060668063</v>
       </c>
       <c r="T5">
-        <v>0.9999594781664248</v>
+        <v>0.999976571914326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001529233967621</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="D6">
-        <v>0.9938830621526554</v>
+        <v>0.9994271582368792</v>
       </c>
       <c r="E6">
-        <v>1.001529233967621</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="F6">
-        <v>0.9938830621526554</v>
+        <v>0.9994271582368792</v>
       </c>
       <c r="G6">
-        <v>1.001529233967621</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="H6">
-        <v>1.0040779628525</v>
+        <v>1.00038189651378</v>
       </c>
       <c r="I6">
-        <v>0.9966356813996881</v>
+        <v>0.999684937041856</v>
       </c>
       <c r="J6">
-        <v>1.001529233967621</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="K6">
-        <v>1.001529233967621</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="L6">
-        <v>1.001529233967621</v>
+        <v>1.000143208614368</v>
       </c>
       <c r="M6">
-        <v>0.9977061480601379</v>
+        <v>0.9997851834256237</v>
       </c>
       <c r="N6">
-        <v>0.9977061480601379</v>
+        <v>0.9997851834256237</v>
       </c>
       <c r="O6">
-        <v>0.997349325839988</v>
+        <v>0.9997517679643678</v>
       </c>
       <c r="P6">
-        <v>0.9989805100292988</v>
+        <v>0.9999045251552051</v>
       </c>
       <c r="Q6">
-        <v>0.9989805100292988</v>
+        <v>0.9999045251552051</v>
       </c>
       <c r="R6">
-        <v>0.9996176910138792</v>
+        <v>0.9999641960199959</v>
       </c>
       <c r="S6">
-        <v>0.9996176910138792</v>
+        <v>0.9999641960199959</v>
       </c>
       <c r="T6">
-        <v>0.9998640680512842</v>
+        <v>0.9999872696059366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000047567033206</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="D7">
-        <v>0.9998097266438388</v>
+        <v>0.9981765826801066</v>
       </c>
       <c r="E7">
-        <v>1.000047567033206</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="F7">
-        <v>0.9998097266438388</v>
+        <v>0.9981765826801066</v>
       </c>
       <c r="G7">
-        <v>1.000047567033206</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="H7">
-        <v>1.000126852222639</v>
+        <v>1.001215613645531</v>
       </c>
       <c r="I7">
-        <v>0.999895349546544</v>
+        <v>0.9989971205547606</v>
       </c>
       <c r="J7">
-        <v>1.000047567033206</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="K7">
-        <v>1.000047567033206</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="L7">
-        <v>1.000047567033206</v>
+        <v>1.000455850706051</v>
       </c>
       <c r="M7">
-        <v>0.9999286468385222</v>
+        <v>0.9993162166930786</v>
       </c>
       <c r="N7">
-        <v>0.9999286468385222</v>
+        <v>0.9993162166930786</v>
       </c>
       <c r="O7">
-        <v>0.9999175477411962</v>
+        <v>0.9992098513136393</v>
       </c>
       <c r="P7">
-        <v>0.9999682869034167</v>
+        <v>0.9996960946974026</v>
       </c>
       <c r="Q7">
-        <v>0.9999682869034167</v>
+        <v>0.9996960946974026</v>
       </c>
       <c r="R7">
-        <v>0.9999881069358639</v>
+        <v>0.9998860336995646</v>
       </c>
       <c r="S7">
-        <v>0.9999881069358639</v>
+        <v>0.9998860336995646</v>
       </c>
       <c r="T7">
-        <v>0.9999957715854397</v>
+        <v>0.9999594781664248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000003809022546</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="D8">
-        <v>0.999984760761442</v>
+        <v>0.9938830621526554</v>
       </c>
       <c r="E8">
-        <v>1.000003809022546</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="F8">
-        <v>0.999984760761442</v>
+        <v>0.9938830621526554</v>
       </c>
       <c r="G8">
-        <v>1.000003809022546</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="H8">
-        <v>1.000010162130821</v>
+        <v>1.0040779628525</v>
       </c>
       <c r="I8">
-        <v>0.9999916182417963</v>
+        <v>0.9966356813996881</v>
       </c>
       <c r="J8">
-        <v>1.000003809022546</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="K8">
-        <v>1.000003809022546</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="L8">
-        <v>1.000003809022546</v>
+        <v>1.001529233967621</v>
       </c>
       <c r="M8">
-        <v>0.9999942848919939</v>
+        <v>0.9977061480601379</v>
       </c>
       <c r="N8">
-        <v>0.9999942848919939</v>
+        <v>0.9977061480601379</v>
       </c>
       <c r="O8">
-        <v>0.9999933960085947</v>
+        <v>0.997349325839988</v>
       </c>
       <c r="P8">
-        <v>0.9999974596021778</v>
+        <v>0.9989805100292988</v>
       </c>
       <c r="Q8">
-        <v>0.9999974596021778</v>
+        <v>0.9989805100292988</v>
       </c>
       <c r="R8">
-        <v>0.9999990469572698</v>
+        <v>0.9996176910138792</v>
       </c>
       <c r="S8">
-        <v>0.9999990469572698</v>
+        <v>0.9996176910138792</v>
       </c>
       <c r="T8">
-        <v>0.9999996613669495</v>
+        <v>0.9998640680512842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000084105684225</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="D9">
-        <v>0.999663574283895</v>
+        <v>0.9998097266438388</v>
       </c>
       <c r="E9">
-        <v>1.000084105684225</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="F9">
-        <v>0.999663574283895</v>
+        <v>0.9998097266438388</v>
       </c>
       <c r="G9">
-        <v>1.000084105684225</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="H9">
-        <v>1.000224288220767</v>
+        <v>1.000126852222639</v>
       </c>
       <c r="I9">
-        <v>0.9998149660040454</v>
+        <v>0.999895349546544</v>
       </c>
       <c r="J9">
-        <v>1.000084105684225</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="K9">
-        <v>1.000084105684225</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="L9">
-        <v>1.000084105684225</v>
+        <v>1.000047567033206</v>
       </c>
       <c r="M9">
-        <v>0.9998738399840599</v>
+        <v>0.9999286468385222</v>
       </c>
       <c r="N9">
-        <v>0.9998738399840599</v>
+        <v>0.9999286468385222</v>
       </c>
       <c r="O9">
-        <v>0.9998542153240551</v>
+        <v>0.9999175477411962</v>
       </c>
       <c r="P9">
-        <v>0.9999439285507815</v>
+        <v>0.9999682869034167</v>
       </c>
       <c r="Q9">
-        <v>0.9999439285507815</v>
+        <v>0.9999682869034167</v>
       </c>
       <c r="R9">
-        <v>0.9999789728341423</v>
+        <v>0.9999881069358639</v>
       </c>
       <c r="S9">
-        <v>0.9999789728341423</v>
+        <v>0.9999881069358639</v>
       </c>
       <c r="T9">
-        <v>0.9999925242602302</v>
+        <v>0.9999957715854397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001551993228135</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="D10">
-        <v>0.993792020298969</v>
+        <v>0.999984760761442</v>
       </c>
       <c r="E10">
-        <v>1.001551993228135</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="F10">
-        <v>0.993792020298969</v>
+        <v>0.999984760761442</v>
       </c>
       <c r="G10">
-        <v>1.001551993228135</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="H10">
-        <v>1.004138656667259</v>
+        <v>1.000010162130821</v>
       </c>
       <c r="I10">
-        <v>0.9965856092599107</v>
+        <v>0.9999916182417963</v>
       </c>
       <c r="J10">
-        <v>1.001551993228135</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="K10">
-        <v>1.001551993228135</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="L10">
-        <v>1.001551993228135</v>
+        <v>1.000003809022546</v>
       </c>
       <c r="M10">
-        <v>0.9976720067635518</v>
+        <v>0.9999942848919939</v>
       </c>
       <c r="N10">
-        <v>0.9976720067635518</v>
+        <v>0.9999942848919939</v>
       </c>
       <c r="O10">
-        <v>0.9973098742623381</v>
+        <v>0.9999933960085947</v>
       </c>
       <c r="P10">
-        <v>0.9989653355850795</v>
+        <v>0.9999974596021778</v>
       </c>
       <c r="Q10">
-        <v>0.9989653355850795</v>
+        <v>0.9999974596021778</v>
       </c>
       <c r="R10">
-        <v>0.9996119999958433</v>
+        <v>0.9999990469572698</v>
       </c>
       <c r="S10">
-        <v>0.9996119999958433</v>
+        <v>0.9999990469572698</v>
       </c>
       <c r="T10">
-        <v>0.9998620443184238</v>
+        <v>0.9999996613669495</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000135002048042</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="D11">
-        <v>0.9994599858584754</v>
+        <v>0.999663574283895</v>
       </c>
       <c r="E11">
-        <v>1.000135002048042</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="F11">
-        <v>0.9994599858584754</v>
+        <v>0.999663574283895</v>
       </c>
       <c r="G11">
-        <v>1.000135002048042</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="H11">
-        <v>1.000360012468757</v>
+        <v>1.000224288220767</v>
       </c>
       <c r="I11">
-        <v>0.999702991281662</v>
+        <v>0.9998149660040454</v>
       </c>
       <c r="J11">
-        <v>1.000135002048042</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="K11">
-        <v>1.000135002048042</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="L11">
-        <v>1.000135002048042</v>
+        <v>1.000084105684225</v>
       </c>
       <c r="M11">
-        <v>0.9997974939532585</v>
+        <v>0.9998738399840599</v>
       </c>
       <c r="N11">
-        <v>0.9997974939532585</v>
+        <v>0.9998738399840599</v>
       </c>
       <c r="O11">
-        <v>0.9997659930627263</v>
+        <v>0.9998542153240551</v>
       </c>
       <c r="P11">
-        <v>0.9999099966515196</v>
+        <v>0.9999439285507815</v>
       </c>
       <c r="Q11">
-        <v>0.9999099966515196</v>
+        <v>0.9999439285507815</v>
       </c>
       <c r="R11">
-        <v>0.99996624800065</v>
+        <v>0.9999789728341423</v>
       </c>
       <c r="S11">
-        <v>0.99996624800065</v>
+        <v>0.9999789728341423</v>
       </c>
       <c r="T11">
-        <v>0.9999879992921699</v>
+        <v>0.9999925242602302</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000465728673684</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="D12">
-        <v>0.9981370643368338</v>
+        <v>0.993792020298969</v>
       </c>
       <c r="E12">
-        <v>1.000465728673684</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="F12">
-        <v>0.9981370643368338</v>
+        <v>0.993792020298969</v>
       </c>
       <c r="G12">
-        <v>1.000465728673684</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="H12">
-        <v>1.001241957852627</v>
+        <v>1.004138656667259</v>
       </c>
       <c r="I12">
-        <v>0.9989753864631655</v>
+        <v>0.9965856092599107</v>
       </c>
       <c r="J12">
-        <v>1.000465728673684</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="K12">
-        <v>1.000465728673684</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="L12">
-        <v>1.000465728673684</v>
+        <v>1.001551993228135</v>
       </c>
       <c r="M12">
-        <v>0.9993013965052591</v>
+        <v>0.9976720067635518</v>
       </c>
       <c r="N12">
-        <v>0.9993013965052591</v>
+        <v>0.9976720067635518</v>
       </c>
       <c r="O12">
-        <v>0.9991927264912279</v>
+        <v>0.9973098742623381</v>
       </c>
       <c r="P12">
-        <v>0.9996895072280675</v>
+        <v>0.9989653355850795</v>
       </c>
       <c r="Q12">
-        <v>0.9996895072280675</v>
+        <v>0.9989653355850795</v>
       </c>
       <c r="R12">
-        <v>0.9998835625894716</v>
+        <v>0.9996119999958433</v>
       </c>
       <c r="S12">
-        <v>0.9998835625894716</v>
+        <v>0.9996119999958433</v>
       </c>
       <c r="T12">
-        <v>0.9999585991122798</v>
+        <v>0.9998620443184238</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996947603083394</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="D13">
-        <v>1.001220949328513</v>
+        <v>0.9994599858584754</v>
       </c>
       <c r="E13">
-        <v>0.9996947603083394</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="F13">
-        <v>1.001220949328513</v>
+        <v>0.9994599858584754</v>
       </c>
       <c r="G13">
-        <v>0.9996947603083394</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="H13">
-        <v>0.999186034531594</v>
+        <v>1.000360012468757</v>
       </c>
       <c r="I13">
-        <v>1.000671524371926</v>
+        <v>0.999702991281662</v>
       </c>
       <c r="J13">
-        <v>0.9996947603083394</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="K13">
-        <v>0.9996947603083394</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="L13">
-        <v>0.9996947603083394</v>
+        <v>1.000135002048042</v>
       </c>
       <c r="M13">
-        <v>1.000457854818426</v>
+        <v>0.9997974939532585</v>
       </c>
       <c r="N13">
-        <v>1.000457854818426</v>
+        <v>0.9997974939532585</v>
       </c>
       <c r="O13">
-        <v>1.000529078002926</v>
+        <v>0.9997659930627263</v>
       </c>
       <c r="P13">
-        <v>1.00020348998173</v>
+        <v>0.9999099966515196</v>
       </c>
       <c r="Q13">
-        <v>1.00020348998173</v>
+        <v>0.9999099966515196</v>
       </c>
       <c r="R13">
-        <v>1.000076307563383</v>
+        <v>0.99996624800065</v>
       </c>
       <c r="S13">
-        <v>1.000076307563383</v>
+        <v>0.99996624800065</v>
       </c>
       <c r="T13">
-        <v>1.000027131526175</v>
+        <v>0.9999879992921699</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0026814</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="D14">
-        <v>0.9892744099999995</v>
+        <v>0.9981370643368338</v>
       </c>
       <c r="E14">
-        <v>1.0026814</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="F14">
-        <v>0.9892744099999995</v>
+        <v>0.9981370643368338</v>
       </c>
       <c r="G14">
-        <v>1.0026814</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="H14">
-        <v>1.0071504</v>
+        <v>1.001241957852627</v>
       </c>
       <c r="I14">
-        <v>0.9941009200000001</v>
+        <v>0.9989753864631655</v>
       </c>
       <c r="J14">
-        <v>1.0026814</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="K14">
-        <v>1.0026814</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="L14">
-        <v>1.0026814</v>
+        <v>1.000465728673684</v>
       </c>
       <c r="M14">
-        <v>0.9959779049999997</v>
+        <v>0.9993013965052591</v>
       </c>
       <c r="N14">
-        <v>0.9959779049999997</v>
+        <v>0.9993013965052591</v>
       </c>
       <c r="O14">
-        <v>0.9953522433333332</v>
+        <v>0.9991927264912279</v>
       </c>
       <c r="P14">
-        <v>0.9982124033333332</v>
+        <v>0.9996895072280675</v>
       </c>
       <c r="Q14">
-        <v>0.9982124033333332</v>
+        <v>0.9996895072280675</v>
       </c>
       <c r="R14">
-        <v>0.9993296524999999</v>
+        <v>0.9998835625894716</v>
       </c>
       <c r="S14">
-        <v>0.9993296524999999</v>
+        <v>0.9998835625894716</v>
       </c>
       <c r="T14">
-        <v>0.999761655</v>
+        <v>0.9999585991122798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0010056</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="D15">
-        <v>0.99597777</v>
+        <v>1.001220949328513</v>
       </c>
       <c r="E15">
-        <v>1.0010056</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="F15">
-        <v>0.99597777</v>
+        <v>1.001220949328513</v>
       </c>
       <c r="G15">
-        <v>1.0010056</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="H15">
-        <v>1.0026815</v>
+        <v>0.999186034531594</v>
       </c>
       <c r="I15">
-        <v>0.99778778</v>
+        <v>1.000671524371926</v>
       </c>
       <c r="J15">
-        <v>1.0010056</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="K15">
-        <v>1.0010056</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="L15">
-        <v>1.0010056</v>
+        <v>0.9996947603083394</v>
       </c>
       <c r="M15">
-        <v>0.9984916850000001</v>
+        <v>1.000457854818426</v>
       </c>
       <c r="N15">
-        <v>0.9984916850000001</v>
+        <v>1.000457854818426</v>
       </c>
       <c r="O15">
-        <v>0.99825705</v>
+        <v>1.000529078002926</v>
       </c>
       <c r="P15">
-        <v>0.9993296566666667</v>
+        <v>1.00020348998173</v>
       </c>
       <c r="Q15">
-        <v>0.9993296566666667</v>
+        <v>1.00020348998173</v>
       </c>
       <c r="R15">
-        <v>0.9997486425000001</v>
+        <v>1.000076307563383</v>
       </c>
       <c r="S15">
-        <v>0.9997486425000001</v>
+        <v>1.000076307563383</v>
       </c>
       <c r="T15">
-        <v>0.9999106416666668</v>
+        <v>1.000027131526175</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="D16">
-        <v>0.9959779000000001</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="E16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="F16">
-        <v>0.9959779000000001</v>
+        <v>0.9892744099999995</v>
       </c>
       <c r="G16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="H16">
+        <v>1.0071504</v>
+      </c>
+      <c r="I16">
+        <v>0.9941009200000001</v>
+      </c>
+      <c r="J16">
         <v>1.0026814</v>
       </c>
-      <c r="I16">
-        <v>0.99778785</v>
-      </c>
-      <c r="J16">
-        <v>1.0010055</v>
-      </c>
       <c r="K16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="L16">
-        <v>1.0010055</v>
+        <v>1.0026814</v>
       </c>
       <c r="M16">
-        <v>0.9984917</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="N16">
-        <v>0.9984917</v>
+        <v>0.9959779049999997</v>
       </c>
       <c r="O16">
-        <v>0.9982570833333333</v>
+        <v>0.9953522433333332</v>
       </c>
       <c r="P16">
-        <v>0.9993296333333334</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="Q16">
-        <v>0.9993296333333334</v>
+        <v>0.9982124033333332</v>
       </c>
       <c r="R16">
-        <v>0.9997486</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="S16">
-        <v>0.9997486</v>
+        <v>0.9993296524999999</v>
       </c>
       <c r="T16">
-        <v>0.9999106083333333</v>
+        <v>0.999761655</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99922493</v>
+        <v>1.0010056</v>
       </c>
       <c r="D17">
-        <v>1.0031003</v>
+        <v>0.99597777</v>
       </c>
       <c r="E17">
-        <v>0.99922493</v>
+        <v>1.0010056</v>
       </c>
       <c r="F17">
-        <v>1.0031003</v>
+        <v>0.99597777</v>
       </c>
       <c r="G17">
-        <v>0.99922493</v>
+        <v>1.0010056</v>
       </c>
       <c r="H17">
-        <v>0.99793314</v>
+        <v>1.0026815</v>
       </c>
       <c r="I17">
-        <v>1.0017052</v>
+        <v>0.99778778</v>
       </c>
       <c r="J17">
-        <v>0.99922493</v>
+        <v>1.0010056</v>
       </c>
       <c r="K17">
-        <v>0.99922493</v>
+        <v>1.0010056</v>
       </c>
       <c r="L17">
-        <v>0.99922493</v>
+        <v>1.0010056</v>
       </c>
       <c r="M17">
-        <v>1.001162615</v>
+        <v>0.9984916850000001</v>
       </c>
       <c r="N17">
-        <v>1.001162615</v>
+        <v>0.9984916850000001</v>
       </c>
       <c r="O17">
-        <v>1.001343476666667</v>
+        <v>0.99825705</v>
       </c>
       <c r="P17">
-        <v>1.00051672</v>
+        <v>0.9993296566666667</v>
       </c>
       <c r="Q17">
-        <v>1.00051672</v>
+        <v>0.9993296566666667</v>
       </c>
       <c r="R17">
-        <v>1.0001937725</v>
+        <v>0.9997486425000001</v>
       </c>
       <c r="S17">
-        <v>1.0001937725</v>
+        <v>0.9997486425000001</v>
       </c>
       <c r="T17">
-        <v>1.000068905</v>
+        <v>0.9999106416666668</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001005515068494</v>
+        <v>1.0010055</v>
       </c>
       <c r="D18">
-        <v>0.9959779012328766</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E18">
-        <v>1.001005515068494</v>
+        <v>1.0010055</v>
       </c>
       <c r="F18">
-        <v>0.9959779012328766</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G18">
-        <v>1.001005515068494</v>
+        <v>1.0010055</v>
       </c>
       <c r="H18">
-        <v>1.002681415068494</v>
+        <v>1.0026814</v>
       </c>
       <c r="I18">
-        <v>0.9977878465753426</v>
+        <v>0.99778785</v>
       </c>
       <c r="J18">
-        <v>1.001005515068494</v>
+        <v>1.0010055</v>
       </c>
       <c r="K18">
-        <v>1.001005515068494</v>
+        <v>1.0010055</v>
       </c>
       <c r="L18">
-        <v>1.001005515068494</v>
+        <v>1.0010055</v>
       </c>
       <c r="M18">
-        <v>0.9984917081506852</v>
+        <v>0.9984917</v>
       </c>
       <c r="N18">
-        <v>0.9984917081506852</v>
+        <v>0.9984917</v>
       </c>
       <c r="O18">
-        <v>0.998257087625571</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P18">
-        <v>0.9993296437899547</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q18">
-        <v>0.9993296437899547</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R18">
-        <v>0.9997486116095895</v>
+        <v>0.9997486</v>
       </c>
       <c r="S18">
-        <v>0.9997486116095895</v>
+        <v>0.9997486</v>
       </c>
       <c r="T18">
-        <v>0.9999106180136991</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000454258421053</v>
+        <v>0.99922493</v>
       </c>
       <c r="D19">
-        <v>0.998182957368421</v>
+        <v>1.0031003</v>
       </c>
       <c r="E19">
-        <v>1.000454258421053</v>
+        <v>0.99922493</v>
       </c>
       <c r="F19">
-        <v>0.998182957368421</v>
+        <v>1.0031003</v>
       </c>
       <c r="G19">
-        <v>1.000454258421053</v>
+        <v>0.99922493</v>
       </c>
       <c r="H19">
-        <v>1.001211360526316</v>
+        <v>0.99793314</v>
       </c>
       <c r="I19">
-        <v>0.999000627368421</v>
+        <v>1.0017052</v>
       </c>
       <c r="J19">
-        <v>1.000454258421053</v>
+        <v>0.99922493</v>
       </c>
       <c r="K19">
-        <v>1.000454258421053</v>
+        <v>0.99922493</v>
       </c>
       <c r="L19">
-        <v>1.000454258421053</v>
+        <v>0.99922493</v>
       </c>
       <c r="M19">
-        <v>0.9993186078947367</v>
+        <v>1.001162615</v>
       </c>
       <c r="N19">
-        <v>0.9993186078947367</v>
+        <v>1.001162615</v>
       </c>
       <c r="O19">
-        <v>0.9992126143859648</v>
+        <v>1.001343476666667</v>
       </c>
       <c r="P19">
-        <v>0.9996971580701753</v>
+        <v>1.00051672</v>
       </c>
       <c r="Q19">
-        <v>0.9996971580701753</v>
+        <v>1.00051672</v>
       </c>
       <c r="R19">
-        <v>0.9998864331578946</v>
+        <v>1.0001937725</v>
       </c>
       <c r="S19">
-        <v>0.9998864331578946</v>
+        <v>1.0001937725</v>
       </c>
       <c r="T19">
-        <v>0.9999596200877191</v>
+        <v>1.000068905</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000454248421053</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="D20">
-        <v>0.9981829994736842</v>
+        <v>0.9959779012328766</v>
       </c>
       <c r="E20">
-        <v>1.000454248421053</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="F20">
-        <v>0.9981829994736842</v>
+        <v>0.9959779012328766</v>
       </c>
       <c r="G20">
-        <v>1.000454248421053</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="H20">
-        <v>1.001211336842105</v>
+        <v>1.002681415068494</v>
       </c>
       <c r="I20">
-        <v>0.9990006542105263</v>
+        <v>0.9977878465753426</v>
       </c>
       <c r="J20">
-        <v>1.000454248421053</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="K20">
-        <v>1.000454248421053</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="L20">
-        <v>1.000454248421053</v>
+        <v>1.001005515068494</v>
       </c>
       <c r="M20">
-        <v>0.9993186239473685</v>
+        <v>0.9984917081506852</v>
       </c>
       <c r="N20">
-        <v>0.9993186239473685</v>
+        <v>0.9984917081506852</v>
       </c>
       <c r="O20">
-        <v>0.9992126340350879</v>
+        <v>0.998257087625571</v>
       </c>
       <c r="P20">
-        <v>0.9996971654385965</v>
+        <v>0.9993296437899547</v>
       </c>
       <c r="Q20">
-        <v>0.9996971654385965</v>
+        <v>0.9993296437899547</v>
       </c>
       <c r="R20">
-        <v>0.9998864361842106</v>
+        <v>0.9997486116095895</v>
       </c>
       <c r="S20">
-        <v>0.9998864361842106</v>
+        <v>0.9997486116095895</v>
       </c>
       <c r="T20">
-        <v>0.9999596226315791</v>
+        <v>0.9999106180136991</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9996486382132348</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="D21">
-        <v>1.001405501410092</v>
+        <v>0.998182957368421</v>
       </c>
       <c r="E21">
-        <v>0.9996486382132348</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="F21">
-        <v>1.001405501410092</v>
+        <v>0.998182957368421</v>
       </c>
       <c r="G21">
-        <v>0.9996486382132348</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="H21">
-        <v>0.9990629917679428</v>
+        <v>1.001211360526316</v>
       </c>
       <c r="I21">
-        <v>1.000773025470039</v>
+        <v>0.999000627368421</v>
       </c>
       <c r="J21">
-        <v>0.9996486382132348</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="K21">
-        <v>0.9996486382132348</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="L21">
-        <v>0.9996486382132348</v>
+        <v>1.000454258421053</v>
       </c>
       <c r="M21">
-        <v>1.000527069811664</v>
+        <v>0.9993186078947367</v>
       </c>
       <c r="N21">
-        <v>1.000527069811664</v>
+        <v>0.9993186078947367</v>
       </c>
       <c r="O21">
-        <v>1.000609055031122</v>
+        <v>0.9992126143859648</v>
       </c>
       <c r="P21">
-        <v>1.000234259278854</v>
+        <v>0.9996971580701753</v>
       </c>
       <c r="Q21">
-        <v>1.000234259278854</v>
+        <v>0.9996971580701753</v>
       </c>
       <c r="R21">
-        <v>1.000087854012449</v>
+        <v>0.9998864331578946</v>
       </c>
       <c r="S21">
-        <v>1.000087854012449</v>
+        <v>0.9998864331578946</v>
       </c>
       <c r="T21">
-        <v>1.000031238881296</v>
+        <v>0.9999596200877191</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.999909271810911</v>
+        <v>1.000454248421053</v>
       </c>
       <c r="D22">
-        <v>1.000362877124751</v>
+        <v>0.9981829994736842</v>
       </c>
       <c r="E22">
-        <v>0.999909271810911</v>
+        <v>1.000454248421053</v>
       </c>
       <c r="F22">
-        <v>1.000362877124751</v>
+        <v>0.9981829994736842</v>
       </c>
       <c r="G22">
-        <v>0.999909271810911</v>
+        <v>1.000454248421053</v>
       </c>
       <c r="H22">
-        <v>0.9997580801805364</v>
+        <v>1.001211336842105</v>
       </c>
       <c r="I22">
-        <v>1.000199582659947</v>
+        <v>0.9990006542105263</v>
       </c>
       <c r="J22">
-        <v>0.999909271810911</v>
+        <v>1.000454248421053</v>
       </c>
       <c r="K22">
-        <v>0.999909271810911</v>
+        <v>1.000454248421053</v>
       </c>
       <c r="L22">
-        <v>0.999909271810911</v>
+        <v>1.000454248421053</v>
       </c>
       <c r="M22">
-        <v>1.000136074467831</v>
+        <v>0.9993186239473685</v>
       </c>
       <c r="N22">
-        <v>1.000136074467831</v>
+        <v>0.9993186239473685</v>
       </c>
       <c r="O22">
-        <v>1.000157243865203</v>
+        <v>0.9992126340350879</v>
       </c>
       <c r="P22">
-        <v>1.000060473582191</v>
+        <v>0.9996971654385965</v>
       </c>
       <c r="Q22">
-        <v>1.000060473582191</v>
+        <v>0.9996971654385965</v>
       </c>
       <c r="R22">
-        <v>1.000022673139371</v>
+        <v>0.9998864361842106</v>
       </c>
       <c r="S22">
-        <v>1.000022673139371</v>
+        <v>0.9998864361842106</v>
       </c>
       <c r="T22">
-        <v>1.000008059232995</v>
+        <v>0.9999596226315791</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9996486092097823</v>
+        <v>0.9996486382132348</v>
       </c>
       <c r="D23">
-        <v>1.001405579072191</v>
+        <v>1.001405501410092</v>
       </c>
       <c r="E23">
-        <v>0.9996486092097823</v>
+        <v>0.9996486382132348</v>
       </c>
       <c r="F23">
-        <v>1.001405579072191</v>
+        <v>1.001405501410092</v>
       </c>
       <c r="G23">
-        <v>0.9996486092097823</v>
+        <v>0.9996486382132348</v>
       </c>
       <c r="H23">
-        <v>0.9990629566350978</v>
+        <v>0.9990629917679428</v>
       </c>
       <c r="I23">
-        <v>1.000773066766072</v>
+        <v>1.000773025470039</v>
       </c>
       <c r="J23">
-        <v>0.9996486092097823</v>
+        <v>0.9996486382132348</v>
       </c>
       <c r="K23">
-        <v>0.9996486092097823</v>
+        <v>0.9996486382132348</v>
       </c>
       <c r="L23">
-        <v>0.9996486092097823</v>
+        <v>0.9996486382132348</v>
       </c>
       <c r="M23">
-        <v>1.000527094140987</v>
+        <v>1.000527069811664</v>
       </c>
       <c r="N23">
-        <v>1.000527094140987</v>
+        <v>1.000527069811664</v>
       </c>
       <c r="O23">
-        <v>1.000609085016015</v>
+        <v>1.000609055031122</v>
       </c>
       <c r="P23">
-        <v>1.000234265830585</v>
+        <v>1.000234259278854</v>
       </c>
       <c r="Q23">
-        <v>1.000234265830585</v>
+        <v>1.000234259278854</v>
       </c>
       <c r="R23">
-        <v>1.000087851675384</v>
+        <v>1.000087854012449</v>
       </c>
       <c r="S23">
-        <v>1.000087851675384</v>
+        <v>1.000087854012449</v>
       </c>
       <c r="T23">
-        <v>1.000031238350451</v>
+        <v>1.000031238881296</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.999909272165817</v>
+        <v>0.999909271810911</v>
       </c>
       <c r="D24">
-        <v>1.000362898628533</v>
+        <v>1.000362877124751</v>
       </c>
       <c r="E24">
-        <v>0.999909272165817</v>
+        <v>0.999909271810911</v>
       </c>
       <c r="F24">
-        <v>1.000362898628533</v>
+        <v>1.000362877124751</v>
       </c>
       <c r="G24">
-        <v>0.999909272165817</v>
+        <v>0.999909271810911</v>
       </c>
       <c r="H24">
-        <v>0.9997580670945519</v>
+        <v>0.9997580801805364</v>
       </c>
       <c r="I24">
-        <v>1.000199594004473</v>
+        <v>1.000199582659947</v>
       </c>
       <c r="J24">
-        <v>0.999909272165817</v>
+        <v>0.999909271810911</v>
       </c>
       <c r="K24">
-        <v>0.999909272165817</v>
+        <v>0.999909271810911</v>
       </c>
       <c r="L24">
-        <v>0.999909272165817</v>
+        <v>0.999909271810911</v>
       </c>
       <c r="M24">
-        <v>1.000136085397175</v>
+        <v>1.000136074467831</v>
       </c>
       <c r="N24">
-        <v>1.000136085397175</v>
+        <v>1.000136074467831</v>
       </c>
       <c r="O24">
-        <v>1.000157254932941</v>
+        <v>1.000157243865203</v>
       </c>
       <c r="P24">
-        <v>1.000060480986723</v>
+        <v>1.000060473582191</v>
       </c>
       <c r="Q24">
-        <v>1.000060480986723</v>
+        <v>1.000060473582191</v>
       </c>
       <c r="R24">
-        <v>1.000022678781496</v>
+        <v>1.000022673139371</v>
       </c>
       <c r="S24">
-        <v>1.000022678781496</v>
+        <v>1.000022673139371</v>
       </c>
       <c r="T24">
-        <v>1.000008062704168</v>
+        <v>1.000008059232995</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9996485850387609</v>
+        <v>0.9996486092097823</v>
       </c>
       <c r="D25">
-        <v>1.001405615652948</v>
+        <v>1.001405579072191</v>
       </c>
       <c r="E25">
-        <v>0.9996485850387609</v>
+        <v>0.9996486092097823</v>
       </c>
       <c r="F25">
-        <v>1.001405615652948</v>
+        <v>1.001405579072191</v>
       </c>
       <c r="G25">
-        <v>0.9996485850387609</v>
+        <v>0.9996486092097823</v>
       </c>
       <c r="H25">
-        <v>0.9990629339916287</v>
+        <v>0.9990629566350978</v>
       </c>
       <c r="I25">
-        <v>1.000773090978309</v>
+        <v>1.000773066766072</v>
       </c>
       <c r="J25">
-        <v>0.9996485850387609</v>
+        <v>0.9996486092097823</v>
       </c>
       <c r="K25">
-        <v>0.9996485850387609</v>
+        <v>0.9996486092097823</v>
       </c>
       <c r="L25">
-        <v>0.9996485850387609</v>
+        <v>0.9996486092097823</v>
       </c>
       <c r="M25">
-        <v>1.000527100345854</v>
+        <v>1.000527094140987</v>
       </c>
       <c r="N25">
-        <v>1.000527100345854</v>
+        <v>1.000527094140987</v>
       </c>
       <c r="O25">
-        <v>1.000609097223339</v>
+        <v>1.000609085016015</v>
       </c>
       <c r="P25">
-        <v>1.000234261910157</v>
+        <v>1.000234265830585</v>
       </c>
       <c r="Q25">
-        <v>1.000234261910157</v>
+        <v>1.000234265830585</v>
       </c>
       <c r="R25">
-        <v>1.000087842692308</v>
+        <v>1.000087851675384</v>
       </c>
       <c r="S25">
-        <v>1.000087842692308</v>
+        <v>1.000087851675384</v>
       </c>
       <c r="T25">
-        <v>1.000031232623195</v>
+        <v>1.000031238350451</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.999909269033909</v>
+        <v>0.999909272165817</v>
       </c>
       <c r="D26">
-        <v>1.000362914415777</v>
+        <v>1.000362898628533</v>
       </c>
       <c r="E26">
-        <v>0.999909269033909</v>
+        <v>0.999909272165817</v>
       </c>
       <c r="F26">
-        <v>1.000362914415777</v>
+        <v>1.000362898628533</v>
       </c>
       <c r="G26">
-        <v>0.999909269033909</v>
+        <v>0.999909272165817</v>
       </c>
       <c r="H26">
-        <v>0.9997580579258739</v>
+        <v>0.9997580670945519</v>
       </c>
       <c r="I26">
-        <v>1.000199600506452</v>
+        <v>1.000199594004473</v>
       </c>
       <c r="J26">
-        <v>0.999909269033909</v>
+        <v>0.999909272165817</v>
       </c>
       <c r="K26">
-        <v>0.999909269033909</v>
+        <v>0.999909272165817</v>
       </c>
       <c r="L26">
-        <v>0.999909269033909</v>
+        <v>0.999909272165817</v>
       </c>
       <c r="M26">
-        <v>1.000136091724843</v>
+        <v>1.000136085397175</v>
       </c>
       <c r="N26">
-        <v>1.000136091724843</v>
+        <v>1.000136085397175</v>
       </c>
       <c r="O26">
-        <v>1.000157261318713</v>
+        <v>1.000157254932941</v>
       </c>
       <c r="P26">
-        <v>1.000060484161198</v>
+        <v>1.000060480986723</v>
       </c>
       <c r="Q26">
-        <v>1.000060484161198</v>
+        <v>1.000060480986723</v>
       </c>
       <c r="R26">
-        <v>1.000022680379376</v>
+        <v>1.000022678781496</v>
       </c>
       <c r="S26">
-        <v>1.000022680379376</v>
+        <v>1.000022678781496</v>
       </c>
       <c r="T26">
-        <v>1.000008063324972</v>
+        <v>1.000008062704168</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000159804231871</v>
+        <v>0.9996485850387609</v>
       </c>
       <c r="D27">
-        <v>0.9993607479918387</v>
+        <v>1.001405615652948</v>
       </c>
       <c r="E27">
-        <v>1.000159804231871</v>
+        <v>0.9996485850387609</v>
       </c>
       <c r="F27">
-        <v>0.9993607479918387</v>
+        <v>1.001405615652948</v>
       </c>
       <c r="G27">
-        <v>1.000159804231871</v>
+        <v>0.9996485850387609</v>
       </c>
       <c r="H27">
-        <v>1.000426157681914</v>
+        <v>0.9990629339916287</v>
       </c>
       <c r="I27">
-        <v>0.9996484052109185</v>
+        <v>1.000773090978309</v>
       </c>
       <c r="J27">
-        <v>1.000159804231871</v>
+        <v>0.9996485850387609</v>
       </c>
       <c r="K27">
-        <v>1.000159804231871</v>
+        <v>0.9996485850387609</v>
       </c>
       <c r="L27">
-        <v>1.000159804231871</v>
+        <v>0.9996485850387609</v>
       </c>
       <c r="M27">
-        <v>0.9997602761118549</v>
+        <v>1.000527100345854</v>
       </c>
       <c r="N27">
-        <v>0.9997602761118549</v>
+        <v>1.000527100345854</v>
       </c>
       <c r="O27">
-        <v>0.9997229858115428</v>
+        <v>1.000609097223339</v>
       </c>
       <c r="P27">
-        <v>0.9998934521518604</v>
+        <v>1.000234261910157</v>
       </c>
       <c r="Q27">
-        <v>0.9998934521518604</v>
+        <v>1.000234261910157</v>
       </c>
       <c r="R27">
-        <v>0.9999600401718631</v>
+        <v>1.000087842692308</v>
       </c>
       <c r="S27">
-        <v>0.9999600401718631</v>
+        <v>1.000087842692308</v>
       </c>
       <c r="T27">
-        <v>0.9999857872633808</v>
+        <v>1.000031232623195</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9999722745152848</v>
+        <v>0.999909269033909</v>
       </c>
       <c r="D28">
-        <v>1.000110884809422</v>
+        <v>1.000362914415777</v>
       </c>
       <c r="E28">
-        <v>0.9999722745152848</v>
+        <v>0.999909269033909</v>
       </c>
       <c r="F28">
-        <v>1.000110884809422</v>
+        <v>1.000362914415777</v>
       </c>
       <c r="G28">
-        <v>0.9999722745152848</v>
+        <v>0.999909269033909</v>
       </c>
       <c r="H28">
-        <v>0.9999260776537988</v>
+        <v>0.9997580579258739</v>
       </c>
       <c r="I28">
-        <v>1.000060987697089</v>
+        <v>1.000199600506452</v>
       </c>
       <c r="J28">
-        <v>0.9999722745152848</v>
+        <v>0.999909269033909</v>
       </c>
       <c r="K28">
-        <v>0.9999722745152848</v>
+        <v>0.999909269033909</v>
       </c>
       <c r="L28">
-        <v>0.9999722745152848</v>
+        <v>0.999909269033909</v>
       </c>
       <c r="M28">
-        <v>1.000041579662353</v>
+        <v>1.000136091724843</v>
       </c>
       <c r="N28">
-        <v>1.000041579662353</v>
+        <v>1.000136091724843</v>
       </c>
       <c r="O28">
-        <v>1.000048049007265</v>
+        <v>1.000157261318713</v>
       </c>
       <c r="P28">
-        <v>1.000018477946664</v>
+        <v>1.000060484161198</v>
       </c>
       <c r="Q28">
-        <v>1.000018477946664</v>
+        <v>1.000060484161198</v>
       </c>
       <c r="R28">
-        <v>1.000006927088819</v>
+        <v>1.000022680379376</v>
       </c>
       <c r="S28">
-        <v>1.000006927088819</v>
+        <v>1.000022680379376</v>
       </c>
       <c r="T28">
-        <v>1.000002462284361</v>
+        <v>1.000008063324972</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="D29">
+        <v>0.9993607479918387</v>
+      </c>
+      <c r="E29">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="F29">
+        <v>0.9993607479918387</v>
+      </c>
+      <c r="G29">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="H29">
+        <v>1.000426157681914</v>
+      </c>
+      <c r="I29">
+        <v>0.9996484052109185</v>
+      </c>
+      <c r="J29">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="K29">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="L29">
+        <v>1.000159804231871</v>
+      </c>
+      <c r="M29">
+        <v>0.9997602761118549</v>
+      </c>
+      <c r="N29">
+        <v>0.9997602761118549</v>
+      </c>
+      <c r="O29">
+        <v>0.9997229858115428</v>
+      </c>
+      <c r="P29">
+        <v>0.9998934521518604</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998934521518604</v>
+      </c>
+      <c r="R29">
+        <v>0.9999600401718631</v>
+      </c>
+      <c r="S29">
+        <v>0.9999600401718631</v>
+      </c>
+      <c r="T29">
+        <v>0.9999857872633808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="D30">
+        <v>1.000110884809422</v>
+      </c>
+      <c r="E30">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="F30">
+        <v>1.000110884809422</v>
+      </c>
+      <c r="G30">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="H30">
+        <v>0.9999260776537988</v>
+      </c>
+      <c r="I30">
+        <v>1.000060987697089</v>
+      </c>
+      <c r="J30">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="K30">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="L30">
+        <v>0.9999722745152848</v>
+      </c>
+      <c r="M30">
+        <v>1.000041579662353</v>
+      </c>
+      <c r="N30">
+        <v>1.000041579662353</v>
+      </c>
+      <c r="O30">
+        <v>1.000048049007265</v>
+      </c>
+      <c r="P30">
+        <v>1.000018477946664</v>
+      </c>
+      <c r="Q30">
+        <v>1.000018477946664</v>
+      </c>
+      <c r="R30">
+        <v>1.000006927088819</v>
+      </c>
+      <c r="S30">
+        <v>1.000006927088819</v>
+      </c>
+      <c r="T30">
+        <v>1.000002462284361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9994843810240057</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.002062497519687</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9994843810240057</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.002062497519687</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9994843810240057</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9986249934890727</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.001134376399488</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9994843810240057</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9994843810240057</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9994843810240057</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.000773439271846</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.000773439271846</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.000893751647727</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000343753189233</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000343753189233</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000128910147926</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000128910147926</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000045835080044</v>
       </c>
     </row>
